--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450" activeTab="8"/>
+    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HST" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="SpeedUP" sheetId="9" r:id="rId7"/>
     <sheet name="store and LLSC" sheetId="8" r:id="rId8"/>
     <sheet name="false alarm" sheetId="10" r:id="rId9"/>
+    <sheet name="PST-remap" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="36">
   <si>
     <t>native</t>
   </si>
@@ -125,6 +126,12 @@
   <si>
     <t>false sc</t>
   </si>
+  <si>
+    <t>remap</t>
+  </si>
+  <si>
+    <t>PST</t>
+  </si>
 </sst>
 </file>
 
@@ -132,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -161,6 +168,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -176,76 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,15 +237,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +290,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,13 +311,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,19 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,19 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,25 +371,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,19 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,19 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +514,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,35 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +573,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,118 +601,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,13 +721,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,7 +736,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,10 +750,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1089,272 +1096,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>38.733</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>58.634</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>23.2506666667</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>27.202</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>56.022</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>220.014666667</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>34.235</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>34.364</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12.0553333333</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>28.073</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>114.185666667</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.485</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.404</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.355</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6.588</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>58.1863333333</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.665</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8.35866666667</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.653</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>6.307</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>7.108</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>35.102</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.771</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8.381</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>34.226</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>12.772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8.41933333333</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.7203333333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8.58266666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.257</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>26.822</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -1882,36 +1889,36 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29">
@@ -1943,7 +1950,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30">
@@ -1975,7 +1982,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
       <c r="B31">
@@ -2007,7 +2014,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
       <c r="B32">
@@ -2039,7 +2046,7 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>16</v>
       </c>
       <c r="B33">
@@ -2071,7 +2078,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
@@ -2103,7 +2110,7 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>64</v>
       </c>
       <c r="B35">
@@ -2393,6 +2400,889 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="8" width="12.625"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="17" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>64</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>16</v>
+      </c>
+      <c r="O1">
+        <v>32</v>
+      </c>
+      <c r="P1">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>2</v>
+      </c>
+      <c r="T1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>8</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>32</v>
+      </c>
+      <c r="X1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>16.516</v>
+      </c>
+      <c r="C2">
+        <v>9.454</v>
+      </c>
+      <c r="D2">
+        <v>5.964</v>
+      </c>
+      <c r="E2">
+        <v>4.19</v>
+      </c>
+      <c r="F2">
+        <v>3.393</v>
+      </c>
+      <c r="G2">
+        <v>3.085</v>
+      </c>
+      <c r="H2">
+        <v>3.161</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <f>15.8606666666666/B2</f>
+        <v>0.960321304593521</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:P2" si="0">15.8606666666666/C2</f>
+        <v>1.67766730131866</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2.65940084954168</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3.78536197295146</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>4.67452598487079</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>5.14122096164233</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>5.01761046082461</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <v>0.960321304593521</v>
+      </c>
+      <c r="S2">
+        <v>1.67766730131866</v>
+      </c>
+      <c r="T2">
+        <v>2.65940084954168</v>
+      </c>
+      <c r="U2">
+        <v>3.78536197295146</v>
+      </c>
+      <c r="V2">
+        <v>4.67452598487079</v>
+      </c>
+      <c r="W2">
+        <v>5.14122096164233</v>
+      </c>
+      <c r="X2">
+        <v>5.01761046082461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15.8606666666666</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.74033333333333</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.19966666666666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.45533333333333</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.355</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.553</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <f>15.8606666666666/B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:P3" si="1">15.8606666666666/C3</f>
+        <v>1.81465237786506</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>3.05032373870119</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>4.5901987266062</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>5.98515723270438</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>6.73489030431703</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>6.2125603864734</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1.81465237786506</v>
+      </c>
+      <c r="T3">
+        <v>3.05032373870119</v>
+      </c>
+      <c r="U3">
+        <v>4.5901987266062</v>
+      </c>
+      <c r="V3">
+        <v>5.98515723270438</v>
+      </c>
+      <c r="W3">
+        <v>6.73489030431703</v>
+      </c>
+      <c r="X3">
+        <v>6.2125603864734</v>
+      </c>
+    </row>
+    <row r="7" spans="10:24">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7">
+        <v>64</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <v>16</v>
+      </c>
+      <c r="W7">
+        <v>32</v>
+      </c>
+      <c r="X7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>31.918</v>
+      </c>
+      <c r="C8">
+        <v>27.982</v>
+      </c>
+      <c r="D8">
+        <v>18.273</v>
+      </c>
+      <c r="E8">
+        <v>12.348</v>
+      </c>
+      <c r="F8">
+        <v>9.924</v>
+      </c>
+      <c r="G8">
+        <v>12.938</v>
+      </c>
+      <c r="H8">
+        <v>15.856</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <f>32.2866666666666/B8</f>
+        <v>1.01155043131357</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:P8" si="2">32.2866666666666/C8</f>
+        <v>1.15383699044624</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.7669056349076</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.61472843105496</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>3.2533924492812</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>2.49549131756582</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>2.0362428523377</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8">
+        <v>1.01155043131357</v>
+      </c>
+      <c r="S8">
+        <v>1.15383699044624</v>
+      </c>
+      <c r="T8">
+        <v>1.7669056349076</v>
+      </c>
+      <c r="U8">
+        <v>2.61472843105496</v>
+      </c>
+      <c r="V8">
+        <v>3.2533924492812</v>
+      </c>
+      <c r="W8">
+        <v>2.49549131756582</v>
+      </c>
+      <c r="X8">
+        <v>2.0362428523377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32.2866666666666</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18.874</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.3566666666666</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14.0453333333333</v>
+      </c>
+      <c r="F9" s="1">
+        <v>17.136</v>
+      </c>
+      <c r="G9" s="1">
+        <v>27.2256666666666</v>
+      </c>
+      <c r="H9" s="1">
+        <v>63.1083333333333</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <f>32.2866666666666/B9</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:P9" si="3">32.2866666666666/C9</f>
+        <v>1.71064250644625</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2.24889714418389</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>2.29874691475223</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1.88414254590725</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>1.185890764842</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0.511607024957084</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1.71064250644625</v>
+      </c>
+      <c r="T9">
+        <v>2.24889714418389</v>
+      </c>
+      <c r="U9">
+        <v>2.29874691475223</v>
+      </c>
+      <c r="V9">
+        <v>1.88414254590725</v>
+      </c>
+      <c r="W9">
+        <v>1.185890764842</v>
+      </c>
+      <c r="X9">
+        <v>0.511607024957084</v>
+      </c>
+    </row>
+    <row r="11" spans="10:24">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>16</v>
+      </c>
+      <c r="O11">
+        <v>32</v>
+      </c>
+      <c r="P11">
+        <v>64</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+      <c r="W11">
+        <v>32</v>
+      </c>
+      <c r="X11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>409.138</v>
+      </c>
+      <c r="C12">
+        <v>401.953</v>
+      </c>
+      <c r="D12">
+        <v>392.108</v>
+      </c>
+      <c r="E12">
+        <v>394.486</v>
+      </c>
+      <c r="F12">
+        <v>388.495</v>
+      </c>
+      <c r="G12">
+        <v>395.081</v>
+      </c>
+      <c r="H12">
+        <v>408.998</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <f>210.569333333333/B12</f>
+        <v>0.51466579328572</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:P12" si="4">210.569333333333/C12</f>
+        <v>0.523865559737912</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0.537018712531581</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.533781511468932</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>0.542012981720056</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0.532977625685196</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>0.514841963367383</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12">
+        <v>0.51466579328572</v>
+      </c>
+      <c r="S12">
+        <v>0.523865559737912</v>
+      </c>
+      <c r="T12">
+        <v>0.537018712531581</v>
+      </c>
+      <c r="U12">
+        <v>0.533781511468932</v>
+      </c>
+      <c r="V12">
+        <v>0.542012981720056</v>
+      </c>
+      <c r="W12">
+        <v>0.532977625685196</v>
+      </c>
+      <c r="X12">
+        <v>0.514841963367383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <v>210.569333333333</v>
+      </c>
+      <c r="C13" s="1">
+        <v>198.121666666666</v>
+      </c>
+      <c r="D13" s="1">
+        <v>191.605</v>
+      </c>
+      <c r="E13" s="1">
+        <v>189.534666666666</v>
+      </c>
+      <c r="F13" s="1">
+        <v>188.787333333333</v>
+      </c>
+      <c r="G13" s="1">
+        <v>190.923999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>197.253</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <f>210.569333333333/B13</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:P13" si="5">210.569333333333/C13</f>
+        <v>1.06282839669227</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>1.09897619234014</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>1.11098057699207</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>1.11537850350129</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>1.10289609128938</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1.06750890142778</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1.06282839669227</v>
+      </c>
+      <c r="T13">
+        <v>1.09897619234014</v>
+      </c>
+      <c r="U13">
+        <v>1.11098057699207</v>
+      </c>
+      <c r="V13">
+        <v>1.11537850350129</v>
+      </c>
+      <c r="W13">
+        <v>1.10289609128938</v>
+      </c>
+      <c r="X13">
+        <v>1.06750890142778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14"/>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>32</v>
+      </c>
+      <c r="P14">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>32</v>
+      </c>
+      <c r="X14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>84.898</v>
+      </c>
+      <c r="C15">
+        <v>143.307</v>
+      </c>
+      <c r="D15">
+        <v>134.36</v>
+      </c>
+      <c r="E15">
+        <v>160.82</v>
+      </c>
+      <c r="F15">
+        <v>187.591</v>
+      </c>
+      <c r="G15">
+        <v>228.808</v>
+      </c>
+      <c r="H15">
+        <v>258.841</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15">
+        <f>68.5766666666666/B15</f>
+        <v>0.80775361806717</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:P15" si="6">68.5766666666666/C15</f>
+        <v>0.47852977640078</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>0.510394958817108</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>0.426418770468018</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.36556480143859</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0.299712714007668</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>0.264937419754469</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15">
+        <v>0.80775361806717</v>
+      </c>
+      <c r="S15">
+        <v>0.47852977640078</v>
+      </c>
+      <c r="T15">
+        <v>0.510394958817108</v>
+      </c>
+      <c r="U15">
+        <v>0.426418770468018</v>
+      </c>
+      <c r="V15">
+        <v>0.36556480143859</v>
+      </c>
+      <c r="W15">
+        <v>0.299712714007668</v>
+      </c>
+      <c r="X15">
+        <v>0.264937419754469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>68.5766666666666</v>
+      </c>
+      <c r="C16" s="1">
+        <v>105.365666666666</v>
+      </c>
+      <c r="D16" s="1">
+        <v>156.855333333333</v>
+      </c>
+      <c r="E16" s="1">
+        <v>225.164333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>323.022666666666</v>
+      </c>
+      <c r="G16" s="1">
+        <v>374.498</v>
+      </c>
+      <c r="H16" s="1">
+        <v>422.364666666666</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16">
+        <f>68.5766666666666/B16</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:P16" si="7">68.5766666666666/C16</f>
+        <v>0.650844519245678</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>0.437196907553882</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="7"/>
+        <v>0.304562741582814</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>0.212296763488218</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.183116242721367</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>0.162363644686188</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0.650844519245678</v>
+      </c>
+      <c r="T16">
+        <v>0.437196907553882</v>
+      </c>
+      <c r="U16">
+        <v>0.304562741582814</v>
+      </c>
+      <c r="V16">
+        <v>0.212296763488218</v>
+      </c>
+      <c r="W16">
+        <v>0.183116242721367</v>
+      </c>
+      <c r="X16">
+        <v>0.162363644686188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2412,258 +3302,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>38.733</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>58.634</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>23.2506666667</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>27.202</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>56.022</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>220.014666667</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>34.235</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>34.364</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12.0553333333</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>28.073</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>114.185666667</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.485</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.404</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.355</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6.588</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>58.1863333333</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.665</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8.35866666667</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.653</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>6.307</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>7.108</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>35.102</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.771</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8.381</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>34.226</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>12.772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8.41933333333</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.7203333333</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8.58266666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.257</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>26.822</v>
       </c>
     </row>
@@ -2679,8 +3569,8 @@
   <sheetPr/>
   <dimension ref="A1:BA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37:V44"/>
+    <sheetView topLeftCell="I39" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54:Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2705,706 +3595,706 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>38.733</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>58.634</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>23.2506666667</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>27.202</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>56.022</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>220.014666667</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>38.733</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>58.634</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>23.2506666667</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>27.202</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>56.022</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>220.014666667</v>
       </c>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>34.235</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>34.364</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12.0553333333</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>28.073</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>114.185666667</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>34.235</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>34.364</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>12.0553333333</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>28.073</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>114.185666667</v>
       </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.485</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.404</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.355</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6.588</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>58.1863333333</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>4.485</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>9.404</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>8.355</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>6.588</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>58.1863333333</v>
       </c>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.665</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8.35866666667</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.653</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>6.307</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>7.108</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>35.102</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>5.665</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>8.35866666667</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>4.653</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>6.307</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>7.108</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>35.102</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.771</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8.381</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>34.226</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>16</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>3.771</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>8.381</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>34.226</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>12.772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8.41933333333</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.7203333333</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>32</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>12.772</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>8.41933333333</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>31.7203333333</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8.58266666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.257</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>26.822</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>64</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>2.77</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>8.58266666667</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>3.257</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>26.822</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" ht="13.05" customHeight="1" spans="1:33">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="U10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB10" s="2" t="s">
+      <c r="AB10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.072596</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.226457999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>6.29165666666666</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6.00002033333333</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1.97664866666666</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>0.153151666666666</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>21.007893</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>1.57551699999999</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>0.016527</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.346377666666666</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <v>0.521856333333333</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>28.748118</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>31.495713</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>3.705042</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="1">
         <v>0.687464</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="1">
         <v>100.372190333333</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="1">
         <v>6.86661166666666</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>0.0749686666666666</v>
       </c>
       <c r="Y11">
@@ -3436,64 +4326,64 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.0734676666666666</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.665385666666666</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>10.4376903333333</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>6.190656</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2.72581833333333</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>18.4697253333333</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>20.8823533333333</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>26.0255663333333</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>0.436371666666666</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>2</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0.341353333333333</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>1.20686766666666</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>34.4942836666666</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>31.4039286666666</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>4.5923</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>32.6526216666666</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>100.642596999999</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="1">
         <v>48.2055983333333</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="1">
         <v>0.762547</v>
       </c>
       <c r="Y12">
@@ -3525,64 +4415,64 @@
       </c>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.0772263333333333</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>1.61901533333333</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>17.4060353333333</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>6.773695</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.59191766666666</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>95.503119</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>20.979339</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>82.7667086666666</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1.16815833333333</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>4</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0.347508333333333</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>2.56015533333333</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>42.3850306666666</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>32.3159389999999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>5.355359</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>137.397218333333</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>100.726566666666</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>110.395324333333</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="1">
         <v>1.63717066666666</v>
       </c>
       <c r="Y13">
@@ -3614,64 +4504,64 @@
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.0840066666666666</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>3.801612</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>26.411174</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>8.543154</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>3.64406933333333</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>189.618281</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>21.1003913333333</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>161.859767</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>2.64076366666666</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>8</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.355783</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>5.76236466666666</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>53.061315</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>34.5672469999999</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>5.46742733333333</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>322.767055666666</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>100.938262333333</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="1">
         <v>188.75287</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="1">
         <v>3.24576866666666</v>
       </c>
       <c r="Y14">
@@ -3703,64 +4593,64 @@
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.120730333333333</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>6.89765366666666</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>41.397014</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>17.82805</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>4.079631</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>286.398155</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>21.9671189999999</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>265.995791</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>2.77257266666666</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>16</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0.403232</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>10.34062</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>71.933395</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>46.359974</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>5.87552466666666</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>536.061060333333</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>100.805691333333</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="1">
         <v>281.219589333333</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>3.490551</v>
       </c>
       <c r="Y15">
@@ -3792,64 +4682,64 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>32</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.183049333333333</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>10.9248079999999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>50.2136106666666</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>37.2306793333333</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>5.065954</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>453.939354</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>21.815399</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>279.140063666666</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>3.27510633333333</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>32</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>0.470911666666666</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <v>19.9215256666666</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>88.0235183333333</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>69.9772426666666</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>7.13575633333333</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>960.569802</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <v>101.631407666666</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="1">
         <v>313.421035666666</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="1">
         <v>4.000571</v>
       </c>
       <c r="Y16">
@@ -3881,64 +4771,64 @@
       </c>
     </row>
     <row r="17" spans="1:33">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>64</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.349889666666666</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>23.6780253333333</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>52.0829346666666</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>81.9617243333333</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>8.75201266666666</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>661.758004666666</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>23.1884503333333</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>289.733837666666</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>4.12340766666666</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>64</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>0.647266999999999</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>54.6782156666666</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>89.442431</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>122.977851333333</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>11.3288136666666</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <v>1528.64407133333</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="1">
         <v>107.345687</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="1">
         <v>350.407888666666</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="1">
         <v>5.00906966666666</v>
       </c>
       <c r="Y17">
@@ -3970,156 +4860,156 @@
       </c>
     </row>
     <row r="19" spans="1:33">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AA19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB19" s="2" t="s">
+      <c r="AB19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AC19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AE19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF19" s="2" t="s">
+      <c r="AF19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AG19" s="2" t="s">
+      <c r="AG19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.05276</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.051105</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>4.50066866667</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>4.257858</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.259836333333</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>0.108022</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>14.5271236667</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1.10256766667</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>0.0141376666667</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>1</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>0.222599333333333</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1">
         <v>0.222420333333333</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>15.930854</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>19.6328923333333</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>1.301071</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>0.354851333333333</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="1">
         <v>61.43537</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="1">
         <v>3.35102866666666</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="1">
         <v>0.0492976666666666</v>
       </c>
       <c r="Y20">
@@ -4151,64 +5041,64 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.053914</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.0757056666667</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4.876762</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>4.284268</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.264108</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>1.714287</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>14.5622266667</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>2.292446</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>0.0466373333333</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>2</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.216460333333333</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>0.4068</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>17.45931</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>19.395683</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1">
         <v>1.42069266666666</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="1">
         <v>8.74998766666666</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="1">
         <v>62.1680113333333</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="1">
         <v>14.9505466666666</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="1">
         <v>0.235692</v>
       </c>
       <c r="Y21">
@@ -4240,64 +5130,64 @@
       </c>
     </row>
     <row r="22" spans="1:53">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.0534366666667</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.10351</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>4.98981733333</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>4.335752</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.270140666667</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>4.55152133333</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>14.4619216667</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>3.042801</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>0.0554403333333</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>4</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>0.217528666666666</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <v>0.769913666666666</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>20.0221376666666</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>19.3780699999999</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>1.49749866666666</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <v>40.3426513333333</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="1">
         <v>61.22228</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="1">
         <v>24.7028596666666</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="1">
         <v>0.384024666666666</v>
       </c>
       <c r="Y22">
@@ -4327,74 +5217,74 @@
       <c r="AG22">
         <v>0.328584333333366</v>
       </c>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
     </row>
     <row r="23" spans="1:53">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.0532733333333</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>0.162940333333</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>5.10476733333</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>4.35568933333</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.276491</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>11.258849</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>14.4560416667</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>3.59032033333</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>0.0734863333333</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>8</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>0.221945</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>1.39537466666666</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <v>22.70381</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>19.7063326666666</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>1.48103266666666</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>106.756726666666</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="1">
         <v>61.2536726666666</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="1">
         <v>40.26141</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="1">
         <v>0.627501</v>
       </c>
       <c r="Y23">
@@ -4424,74 +5314,74 @@
       <c r="AG23">
         <v>0.5540146666667</v>
       </c>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.0545493333333</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>0.232558</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>5.33473633333</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>4.51666533333</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.294972666667</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>18.7738086667</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>15.0691686667</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>4.43855633333</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>0.084177</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>16</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>0.226937</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>2.313275</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="1">
         <v>26.3970726666666</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>21.1781893333333</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>1.50375966666666</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>179.838778333333</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="1">
         <v>61.330512</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="1">
         <v>54.461563</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V24" s="1">
         <v>0.670932333333333</v>
       </c>
       <c r="Y24">
@@ -4521,74 +5411,74 @@
       <c r="AG24">
         <v>0.586755333333333</v>
       </c>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.0571096666667</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.361731</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>5.73878033333</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>4.760458</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.318420333333</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>38.891482</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>14.5572753333</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>5.75721633333</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>0.0856266666667</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>32</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>0.227456333333333</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>4.07991433333333</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>31.419393</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>24.7227556666666</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>1.596824</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <v>302.735506</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="1">
         <v>61.602981</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="1">
         <v>70.8629076666666</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="1">
         <v>0.690561</v>
       </c>
       <c r="Y25">
@@ -4618,74 +5508,74 @@
       <c r="AG25">
         <v>0.6049343333333</v>
       </c>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
     </row>
     <row r="26" spans="1:53">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>64</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.0585226666667</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>0.667391333333</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>5.93739233333</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>5.38724933333</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.357907</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>56.654779</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>14.705779</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>6.484187</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0.0905513333333</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>64</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.234295</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>7.54842599999999</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>32.932684</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>30.5482796666666</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>1.79713433333333</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <v>431.912064333333</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="1">
         <v>63.1276949999999</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="1">
         <v>73.127408</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="1">
         <v>0.776694</v>
       </c>
       <c r="Y26">
@@ -4715,1080 +5605,1080 @@
       <c r="AG26">
         <v>0.6861426666667</v>
       </c>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:33">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V28" s="2" t="s">
+      <c r="V28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>15.0820226667</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>32.3668963333</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>49.5253253333367</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>68.8918783333333</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>25.4871516666997</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>19.0605069999667</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>62.7370166667</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>58.70008466667</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>220.045331333667</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
         <v>1</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>15.5256436667</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>32.8336099999667</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>83.411972</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>109.762605333333</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>28.2567796667</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>19.8416486666333</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1">
         <v>189.009560333333</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="1">
         <v>66.2396403333333</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="1">
         <v>220.138933000333</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>8.11071499999667</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>17.6017580000334</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>49.5494523333333</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>44.838924</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>15.0452596666333</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>30.9433456666333</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>50.3859133333333</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>56.3910123333333</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>114.668675667</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
         <v>2</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>8.54114699999667</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>18.4743343333667</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>86.1885936666666</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>85.1636116666666</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>18.0683259999667</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>52.1619426666333</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="1">
         <v>177.751941666632</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="1">
         <v>91.2291449999999</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="1">
         <v>115.183905667</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4.61566300000003</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>11.1265253333333</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>54.2305193333633</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>33.9041136667</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>12.2170583333337</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>106.64264033333</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>45.10292733337</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>99.9028429999666</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>59.4099319999666</v>
       </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
         <v>4</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>5.050037</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>12.734069</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>94.2418350000332</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>74.4886756666998</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>15.2078576666667</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>184.327869666666</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="1">
         <v>171.610513333336</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="1">
         <v>149.1915173333</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="1">
         <v>60.2075286666333</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2.89861333332997</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>9.629552333333</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>62.14227466663</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>29.50017666663</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>12.2792270000033</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>205.53013</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>41.8634330000333</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>172.55808733333</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>37.81625</v>
       </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
         <v>8</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>3.33906133333</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>12.8227393333333</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>106.3914583333</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>70.8749129999665</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>15.30712666667</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>434.176782333332</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="1">
         <v>168.498935</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="1">
         <v>236.12228</v>
       </c>
-      <c r="V32" s="2">
+      <c r="V32" s="1">
         <v>38.9752696666667</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>16</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2.06194633333663</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>10.9012116666667</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>76.61508366663</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>35.34338200003</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>12.755603666667</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>308.71563033337</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>44.5189543333699</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>274.06168066666</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>37.0827496666667</v>
       </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
         <v>16</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>2.51683566667</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>16.424895</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>128.213800999967</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>80.5368300000333</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>15.7602843333333</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>719.443505333336</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="1">
         <v>169.618870000003</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="1">
         <v>339.308485666663</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="1">
         <v>38.3874833333333</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>1.72849233333003</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>14.2252056666699</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>85.4390576666966</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>54.7631373333333</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>13.803707666663</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>495.95316933333</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>43.03700766663</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>286.785946666666</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>35.0810663333</v>
       </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
         <v>32</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>2.18670133333</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>26.9401066666699</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>148.929578000033</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>107.471998333333</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>17.1519136666633</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>1266.42764133333</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="1">
         <v>169.898721999996</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="1">
         <v>386.172610000003</v>
       </c>
-      <c r="V34" s="2">
+      <c r="V34" s="1">
         <v>36.4114653333</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>64</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>1.90874566666337</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>27.1154166666663</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>87.5056603332966</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>98.8256403333633</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>17.6925863333367</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>721.669783666666</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>45.0838960000033</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>297.816691333336</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>31.035959</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
         <v>64</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>2.38189533333</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>64.9966416666666</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <v>151.8604483333</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <v>165.0027976667</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="1">
         <v>21.7086146666699</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <v>1963.81313566666</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1">
         <v>177.66304866667</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="1">
         <v>425.133963333336</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="1">
         <v>32.6077636666667</v>
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:33">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="V37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>15.3886666666666</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>31.7799999999999</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>55.9673333333333</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>73.71</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>27.5636666666666</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>19.1246666666666</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>81.6863333333333</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>60.8613333333333</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>219.577333333333</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>15.8606666666666</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>32.2866666666666</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>91.0136666666666</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="1">
         <v>115.702</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="1">
         <v>30.4156666666666</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <v>19.9646666666666</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="1">
         <v>210.569333333333</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="1">
         <v>68.5766666666666</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="1">
         <v>219.842666666666</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>8.31666666666666</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>17.9536666666666</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>58.5516666666666</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>49.8943333333333</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>17.2376666666666</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>37.2653333333333</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>69.1763333333333</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>72.0706666666666</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>115.617666666666</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>2</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>8.74033333333333</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>18.874</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>95.7086666666666</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="1">
         <v>91.2043333333333</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="1">
         <v>20.3026666666666</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="1">
         <v>58.1083333333333</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="1">
         <v>198.121666666666</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="1">
         <v>105.365666666666</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="1">
         <v>115.467666666666</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>4</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>4.754</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>11.3873333333333</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>62.5156666666666</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>39.4266666666666</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>14.8893333333333</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>126.422666666666</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>64.0546666666666</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>113.73</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>60.562</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>4</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>5.19966666666666</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>14.3566666666666</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>101.508333333333</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>81.0473333333333</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="1">
         <v>17.677</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1">
         <v>185.692666666666</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="1">
         <v>191.605</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="1">
         <v>156.855333333333</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="1">
         <v>61.882</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>3.01766666666666</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>11.2803333333333</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>69.806</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>35.073</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>14.9036666666666</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>258.384666666666</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>60.7873333333333</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>187.650666666666</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>40.9123333333333</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>8</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>3.45533333333333</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>14.0453333333333</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>109.419</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="1">
         <v>77.216</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="1">
         <v>17.858</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>431.318</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="1">
         <v>189.534666666666</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="1">
         <v>225.164333333333</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="1">
         <v>42.8903333333333</v>
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>16</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>2.17633333333333</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>12.385</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>85.2436666666666</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>42.1626666666666</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>15.2656666666666</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>399.535666666666</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>62.368</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>295.683999999999</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>40.2886666666666</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>16</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>2.65</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>17.136</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <v>128.279666666666</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="1">
         <v>87.6946666666666</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="1">
         <v>18.2279999999999</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>725.003333333333</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="1">
         <v>188.787333333333</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="1">
         <v>323.022666666666</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="1">
         <v>42.5673333333333</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>32</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>1.886</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>15.9369999999999</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>95.0339999999999</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>61.3333333333333</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>16.4216666666666</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>670.080333333333</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>62.2606666666666</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>320.984666666666</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>38.5723333333333</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>32</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>2.355</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>27.2256666666666</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>144.285333333333</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="1">
         <v>112.656</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="1">
         <v>19.4906666666666</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1">
         <v>1328.794</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="1">
         <v>190.923999999999</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="1">
         <v>374.498</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="1">
         <v>40.8163333333333</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>64</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>2.05766666666666</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>28.6513333333333</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>97.1776666666666</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>106.943666666666</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>20.525</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>985.993666666666</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>63.0896666666666</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>338.782333333333</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>35.9436666666666</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>64</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>2.553</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>63.1083333333333</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <v>146.862666666666</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="1">
         <v>168.423666666666</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="1">
         <v>24.2626666666666</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1">
         <v>2053.133</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="1">
         <v>197.253</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="1">
         <v>422.364666666666</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="1">
         <v>37.5293333333333</v>
       </c>
     </row>
@@ -5818,498 +6708,498 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>38.733</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>58.634</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>23.2506666667</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>27.202</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>56.022</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>220.014666667</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>14.924</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>31.6166666667</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>39.1783333333</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>59.5433333333</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>23.1636666667</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>18.7633333333</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>30.0823333333</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>56.221</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>220.649</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>34.235</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>34.364</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12.0553333333</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>28.073</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>114.185666667</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>7.97766666667</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>16.822</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>34.808</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>35.1093333333</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>12.016</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>10.938</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>17.6996666667</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>28.3573333333</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>114.006333333</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.485</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>9.404</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8.355</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>6.588</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>58.1863333333</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>4.49366666667</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>9.41966666667</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>32.5723333333</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>23.468</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>8.37033333333</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>7.546</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>12.404</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>14.3926666667</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>58.4023333333</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>5.665</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8.35866666667</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>4.653</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>6.307</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>7.108</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>35.102</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>8</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>5.729</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>31.3736666667</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>17.264</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>8.64966666667</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>10.1366666667</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>9.11</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>7.36066666667</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>34.9563333333</v>
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.771</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8.381</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>34.226</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>16</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>1.90533333333</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>3.8</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>30.6176666667</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>13.5483333333</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>8.433</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>13.1673333333</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>9.72233333333</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>3.81</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>34.0883333333</v>
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>12.772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8.41933333333</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>31.7203333333</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>32</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1.49233333333</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>2.93333333333</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>30.3046666667</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>13.021</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>8.55966666667</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>20.6073333333</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>10.4856666667</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>2.71366666667</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>31.3386666667</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2.77</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8.58266666667</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3.257</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>26.822</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>64</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>1.51466666667</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>2.841</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>30.3056666667</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>12.486</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>8.55533333333</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>29.5823333333</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>9.60266666667</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="1">
         <v>2.91466666667</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>26.8606666667</v>
       </c>
     </row>
@@ -6317,36 +7207,36 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11">
@@ -6387,7 +7277,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
       <c r="B12">
@@ -6428,7 +7318,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13">
@@ -6469,7 +7359,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
       <c r="B14">
@@ -6510,7 +7400,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15">
@@ -6551,7 +7441,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>32</v>
       </c>
       <c r="B16">
@@ -6592,7 +7482,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>64</v>
       </c>
       <c r="B17">
@@ -6643,7 +7533,7 @@
   <sheetPr/>
   <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -9604,7 +10494,7 @@
       <c r="H1">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K1">
@@ -9628,7 +10518,7 @@
       <c r="Q1">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T1">
@@ -10302,57 +11192,57 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>32</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4.485</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="K12" t="s">
@@ -10405,28 +11295,28 @@
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>9.404</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>5.665</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>3.771</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>2.77</v>
       </c>
       <c r="J13">
@@ -10482,28 +11372,28 @@
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>38.733</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>34.235</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>29.4853333333</v>
       </c>
       <c r="J14">
@@ -10559,28 +11449,28 @@
       </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>58.634</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>34.364</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>12.772</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>11.4766666667</v>
       </c>
       <c r="J15">
@@ -10636,28 +11526,28 @@
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>6.588</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>4.653</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>3.257</v>
       </c>
       <c r="J16">
@@ -10713,28 +11603,28 @@
       </c>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>27.202</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>6.307</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>7.18966666667</v>
       </c>
       <c r="J17">
@@ -10790,28 +11680,28 @@
       </c>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>56.022</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>28.073</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>7.108</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>1.59866666667</v>
       </c>
       <c r="J18">
@@ -10867,28 +11757,28 @@
       </c>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>220.014666667</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>114.185666667</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>58.1863333333</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>35.102</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>34.226</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>31.7203333333</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>26.822</v>
       </c>
       <c r="J19">
@@ -10970,7 +11860,7 @@
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B21">
@@ -10994,36 +11884,36 @@
       <c r="H21">
         <v>1.50566666667</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22">
@@ -11047,36 +11937,36 @@
       <c r="H22">
         <v>0.81699999999999</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>38.733</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>58.634</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>27.202</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>56.022</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>220.014666667</v>
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23">
@@ -11100,36 +11990,36 @@
       <c r="H23">
         <v>47.9903333333666</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>34.235</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>34.364</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>28.073</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>114.185666667</v>
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24">
@@ -11153,36 +12043,36 @@
       <c r="H24">
         <v>14.5686666666333</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>4</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>4.485</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>9.404</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="1">
         <v>6.588</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>58.1863333333</v>
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25">
@@ -11206,36 +12096,36 @@
       <c r="H25">
         <v>3.64933333333333</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>5.665</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>4.653</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>6.307</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>7.108</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>35.102</v>
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26">
@@ -11259,36 +12149,36 @@
       <c r="H26">
         <v>13.8609999999966</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>16</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>3.771</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>34.226</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B27">
@@ -11312,36 +12202,36 @@
       <c r="H27">
         <v>0.61366666666333</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>32</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>12.772</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>31.7203333333</v>
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B28">
@@ -11365,31 +12255,31 @@
       <c r="H28">
         <v>47.671</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>64</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>2.77</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>3.257</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>26.822</v>
       </c>
     </row>
@@ -11418,31 +12308,31 @@
       <c r="H30">
         <v>64</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="Q30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11471,7 +12361,7 @@
       <c r="H31">
         <v>0.59266666666666</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31">
@@ -11532,7 +12422,7 @@
       <c r="H32">
         <v>48.8936666666666</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>2</v>
       </c>
       <c r="K32">
@@ -11593,7 +12483,7 @@
       <c r="H33">
         <v>178.122333333332</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>4</v>
       </c>
       <c r="K33">
@@ -11654,7 +12544,7 @@
       <c r="H34">
         <v>146.853333333333</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>8</v>
       </c>
       <c r="K34">
@@ -11715,7 +12605,7 @@
       <c r="H35">
         <v>1974.759</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>16</v>
       </c>
       <c r="K35">
@@ -11776,7 +12666,7 @@
       <c r="H36">
         <v>61.967</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>32</v>
       </c>
       <c r="K36">
@@ -11837,7 +12727,7 @@
       <c r="H37">
         <v>764.739666666667</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>64</v>
       </c>
       <c r="K37">
@@ -11900,55 +12790,55 @@
       </c>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="P43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="Q43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T43" t="s">
@@ -11980,31 +12870,31 @@
       </c>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>14.9566666667</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>32.0893333333</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>38.733</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>58.634</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>18.7993333333</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>27.202</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>56.022</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>220.014666667</v>
       </c>
       <c r="K44">
@@ -12060,31 +12950,31 @@
       </c>
     </row>
     <row r="45" spans="1:28">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>7.98333333333</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>16.8606666667</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>34.235</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>34.364</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>10.7593333333</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>14.9413333333</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>28.073</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>114.185666667</v>
       </c>
       <c r="K45">
@@ -12140,31 +13030,31 @@
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>4</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>4.485</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>9.404</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>31.8346666667</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>22.7946666667</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>6.588</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>9.66166666667</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>14.0933333333</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>58.1863333333</v>
       </c>
       <c r="K46">
@@ -12220,31 +13110,31 @@
       </c>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>8</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>2.76133333333</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>5.665</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>30.6263333333</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>16.6013333333</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>4.653</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>6.307</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>7.108</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>35.102</v>
       </c>
       <c r="K47">
@@ -12300,31 +13190,31 @@
       </c>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>16</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>1.88666666667</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>3.771</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>29.8833333333</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>12.9986666667</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>3.54366666667</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>7.48266666667</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>3.62733333333</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>34.226</v>
       </c>
       <c r="K48">
@@ -12380,31 +13270,31 @@
       </c>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>32</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>1.48833333333</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>2.93866666667</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>29.4866666667</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>12.772</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>3.12233333333</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>6.66433333333</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>1.88866666667</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>31.7203333333</v>
       </c>
       <c r="K49">
@@ -12460,31 +13350,31 @@
       </c>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>64</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>1.50033333333</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>2.77</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>29.4853333333</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>11.4766666667</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>3.257</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>7.18966666667</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>1.59866666667</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>26.822</v>
       </c>
       <c r="K50">
@@ -12568,97 +13458,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AB1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AF1" t="s">
@@ -12666,10 +13556,10 @@
       </c>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>14.9566666667</v>
       </c>
       <c r="C2">
@@ -12678,10 +13568,10 @@
       <c r="D2">
         <v>0.0466666666666029</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>32.0893333333</v>
       </c>
       <c r="G2">
@@ -12690,10 +13580,10 @@
       <c r="H2">
         <v>0.0689999999999031</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>38.733</v>
       </c>
       <c r="K2">
@@ -12702,10 +13592,10 @@
       <c r="L2">
         <v>12.5709999999994</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>58.634</v>
       </c>
       <c r="O2">
@@ -12714,10 +13604,10 @@
       <c r="P2">
         <v>11.7073333333331</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>18.7993333333</v>
       </c>
       <c r="S2">
@@ -12726,10 +13616,10 @@
       <c r="T2">
         <v>0.0576666666665986</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>27.202</v>
       </c>
       <c r="W2">
@@ -12738,10 +13628,10 @@
       <c r="X2">
         <v>44.157333333333</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>1</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>56.022</v>
       </c>
       <c r="AA2">
@@ -12750,10 +13640,10 @@
       <c r="AB2">
         <v>3.5833333333333</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>1</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2" s="1">
         <v>220.014666667</v>
       </c>
       <c r="AE2">
@@ -12764,10 +13654,10 @@
       </c>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>7.98333333333</v>
       </c>
       <c r="C3">
@@ -12776,10 +13666,10 @@
       <c r="D3">
         <v>0.0210000000000008</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>16.8606666667</v>
       </c>
       <c r="G3">
@@ -12788,10 +13678,10 @@
       <c r="H3">
         <v>1.4596666666667</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>34.235</v>
       </c>
       <c r="K3">
@@ -12800,10 +13690,10 @@
       <c r="L3">
         <v>20.1193333333334</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>34.364</v>
       </c>
       <c r="O3">
@@ -12812,10 +13702,10 @@
       <c r="P3">
         <v>13.1576666666667</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>2</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>10.7593333333</v>
       </c>
       <c r="S3">
@@ -12824,10 +13714,10 @@
       <c r="T3">
         <v>30.718</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>2</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>14.9413333333</v>
       </c>
       <c r="W3">
@@ -12836,10 +13726,10 @@
       <c r="X3">
         <v>47.211</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>2</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>28.073</v>
       </c>
       <c r="AA3">
@@ -12848,10 +13738,10 @@
       <c r="AB3">
         <v>49.6623333333333</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AC3" s="1">
         <v>2</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="1">
         <v>114.185666667</v>
       </c>
       <c r="AE3">
@@ -12862,10 +13752,10 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.485</v>
       </c>
       <c r="C4">
@@ -12874,10 +13764,10 @@
       <c r="D4">
         <v>0.05833333333333</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>9.404</v>
       </c>
       <c r="G4">
@@ -12886,10 +13776,10 @@
       <c r="H4">
         <v>3.623</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>31.8346666667</v>
       </c>
       <c r="K4">
@@ -12898,10 +13788,10 @@
       <c r="L4">
         <v>40.4166666666667</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>22.7946666667</v>
       </c>
       <c r="O4">
@@ -12910,10 +13800,10 @@
       <c r="P4">
         <v>13.794</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>4</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>6.588</v>
       </c>
       <c r="S4">
@@ -12922,10 +13812,10 @@
       <c r="T4">
         <v>194.697999999999</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>4</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>9.66166666667</v>
       </c>
       <c r="W4">
@@ -12934,10 +13824,10 @@
       <c r="X4">
         <v>40.7893333333334</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>4</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>14.0933333333</v>
       </c>
       <c r="AA4">
@@ -12946,10 +13836,10 @@
       <c r="AB4">
         <v>217.15</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="1">
         <v>4</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="1">
         <v>58.1863333333</v>
       </c>
       <c r="AE4">
@@ -12960,10 +13850,10 @@
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.76133333333</v>
       </c>
       <c r="C5">
@@ -12972,10 +13862,10 @@
       <c r="D5">
         <v>0.10066666666667</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>5.665</v>
       </c>
       <c r="G5">
@@ -12984,10 +13874,10 @@
       <c r="H5">
         <v>10.1589999999999</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>30.6263333333</v>
       </c>
       <c r="K5">
@@ -12996,10 +13886,10 @@
       <c r="L5">
         <v>60.3966666666664</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>8</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>16.6013333333</v>
       </c>
       <c r="O5">
@@ -13008,10 +13898,10 @@
       <c r="P5">
         <v>17.8066666666667</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>8</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>4.653</v>
       </c>
       <c r="S5">
@@ -13020,10 +13910,10 @@
       <c r="T5">
         <v>419.581666666666</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>8</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>6.307</v>
       </c>
       <c r="W5">
@@ -13032,10 +13922,10 @@
       <c r="X5">
         <v>49.54</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>8</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>7.108</v>
       </c>
       <c r="AA5">
@@ -13044,10 +13934,10 @@
       <c r="AB5">
         <v>400.341666666666</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>8</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>35.102</v>
       </c>
       <c r="AE5">
@@ -13058,10 +13948,10 @@
       </c>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1.88666666667</v>
       </c>
       <c r="C6">
@@ -13070,10 +13960,10 @@
       <c r="D6">
         <v>0.222</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>16</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>3.771</v>
       </c>
       <c r="G6">
@@ -13082,10 +13972,10 @@
       <c r="H6">
         <v>12.4799999999999</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>29.8833333333</v>
       </c>
       <c r="K6">
@@ -13094,10 +13984,10 @@
       <c r="L6">
         <v>94.0159999999994</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>16</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>12.9986666667</v>
       </c>
       <c r="O6">
@@ -13106,10 +13996,10 @@
       <c r="P6">
         <v>33.174</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>16</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>3.54366666667</v>
       </c>
       <c r="S6">
@@ -13118,10 +14008,10 @@
       <c r="T6">
         <v>746.912333333333</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>16</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>7.48266666667</v>
       </c>
       <c r="W6">
@@ -13130,10 +14020,10 @@
       <c r="X6">
         <v>50.0753333333334</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>16</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>3.62733333333</v>
       </c>
       <c r="AA6">
@@ -13142,10 +14032,10 @@
       <c r="AB6">
         <v>623.027999999999</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="1">
         <v>16</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="1">
         <v>34.226</v>
       </c>
       <c r="AE6">
@@ -13156,10 +14046,10 @@
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>32</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1.48833333333</v>
       </c>
       <c r="C7">
@@ -13168,10 +14058,10 @@
       <c r="D7">
         <v>0.31466666666667</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>32</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>2.93866666667</v>
       </c>
       <c r="G7">
@@ -13180,10 +14070,10 @@
       <c r="H7">
         <v>20.7183333333333</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>32</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>29.4866666667</v>
       </c>
       <c r="K7">
@@ -13192,10 +14082,10 @@
       <c r="L7">
         <v>144.513666666666</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>32</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>12.772</v>
       </c>
       <c r="O7">
@@ -13204,10 +14094,10 @@
       <c r="P7">
         <v>65.07</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>32</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>3.12233333333</v>
       </c>
       <c r="S7">
@@ -13216,10 +14106,10 @@
       <c r="T7">
         <v>1469.28033333333</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>32</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>6.66433333333</v>
       </c>
       <c r="W7">
@@ -13228,10 +14118,10 @@
       <c r="X7">
         <v>51.3923333333333</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>32</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>1.88866666667</v>
       </c>
       <c r="AA7">
@@ -13240,10 +14130,10 @@
       <c r="AB7">
         <v>736.365666666667</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="1">
         <v>32</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="1">
         <v>31.7203333333</v>
       </c>
       <c r="AE7">
@@ -13254,10 +14144,10 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>64</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1.50033333333</v>
       </c>
       <c r="C8">
@@ -13266,10 +14156,10 @@
       <c r="D8">
         <v>0.59266666666666</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>64</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2.77</v>
       </c>
       <c r="G8">
@@ -13278,10 +14168,10 @@
       <c r="H8">
         <v>48.8936666666666</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>64</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>29.4853333333</v>
       </c>
       <c r="K8">
@@ -13290,10 +14180,10 @@
       <c r="L8">
         <v>178.122333333332</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>64</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>11.4766666667</v>
       </c>
       <c r="O8">
@@ -13302,10 +14192,10 @@
       <c r="P8">
         <v>146.853333333333</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <v>64</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>3.257</v>
       </c>
       <c r="S8">
@@ -13314,10 +14204,10 @@
       <c r="T8">
         <v>1974.759</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <v>64</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="1">
         <v>7.18966666667</v>
       </c>
       <c r="W8">
@@ -13326,10 +14216,10 @@
       <c r="X8">
         <v>61.967</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="1">
         <v>64</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="1">
         <v>1.59866666667</v>
       </c>
       <c r="AA8">
@@ -13338,10 +14228,10 @@
       <c r="AB8">
         <v>764.739666666667</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="1">
         <v>64</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="1">
         <v>26.822</v>
       </c>
       <c r="AE8">
@@ -13377,19 +14267,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13580,7 +14470,7 @@
   <sheetPr/>
   <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HST" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="store and LLSC" sheetId="8" r:id="rId8"/>
     <sheet name="false alarm" sheetId="10" r:id="rId9"/>
     <sheet name="PST-remap" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="37">
   <si>
     <t>native</t>
   </si>
@@ -103,19 +104,25 @@
     <t>store instrument</t>
   </si>
   <si>
-    <t>instructions</t>
+    <t>instrutions</t>
   </si>
   <si>
-    <t>ldrex count</t>
+    <t>store</t>
   </si>
   <si>
-    <t>store count</t>
+    <t>qemu4.1</t>
   </si>
   <si>
-    <t>ldrex rate</t>
+    <t>HST</t>
   </si>
   <si>
-    <t>store rate</t>
+    <t>PST</t>
+  </si>
+  <si>
+    <t>PST-more</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
   <si>
     <t>pf</t>
@@ -129,19 +136,16 @@
   <si>
     <t>remap</t>
   </si>
-  <si>
-    <t>PST</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,6 +164,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -169,8 +187,84 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,59 +279,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,51 +299,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,7 +309,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +351,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,73 +423,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,49 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,26 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,11 +542,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,142 +605,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2409,7 +2413,7 @@
   <sheetPr/>
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -2446,7 +2450,6 @@
       <c r="H1">
         <v>64</v>
       </c>
-      <c r="I1"/>
       <c r="J1">
         <v>1</v>
       </c>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>16.516</v>
@@ -2517,7 +2520,7 @@
         <v>3.161</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <f>15.8606666666666/B2</f>
@@ -2548,7 +2551,7 @@
         <v>5.01761046082461</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2">
         <v>0.960321304593521</v>
@@ -2574,7 +2577,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <v>15.8606666666666</v>
@@ -2598,7 +2601,7 @@
         <v>2.553</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <f>15.8606666666666/B3</f>
@@ -2629,7 +2632,7 @@
         <v>6.2125603864734</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2699,7 +2702,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>31.918</v>
@@ -2723,7 +2726,7 @@
         <v>15.856</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <f>32.2866666666666/B8</f>
@@ -2754,7 +2757,7 @@
         <v>2.0362428523377</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R8">
         <v>1.01155043131357</v>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1">
         <v>32.2866666666666</v>
@@ -2804,7 +2807,7 @@
         <v>63.1083333333333</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J9">
         <f>32.2866666666666/B9</f>
@@ -2835,7 +2838,7 @@
         <v>0.511607024957084</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>409.138</v>
@@ -2929,7 +2932,7 @@
         <v>408.998</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J12">
         <f>210.569333333333/B12</f>
@@ -2960,7 +2963,7 @@
         <v>0.514841963367383</v>
       </c>
       <c r="Q12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R12">
         <v>0.51466579328572</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1">
         <v>210.569333333333</v>
@@ -3010,7 +3013,7 @@
         <v>197.253</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J13">
         <f>210.569333333333/B13</f>
@@ -3041,7 +3044,7 @@
         <v>1.06750890142778</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -3074,7 +3077,6 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14"/>
       <c r="J14">
         <v>1</v>
       </c>
@@ -3121,7 +3123,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>84.898</v>
@@ -3145,7 +3147,7 @@
         <v>258.841</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <f>68.5766666666666/B15</f>
@@ -3176,7 +3178,7 @@
         <v>0.264937419754469</v>
       </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R15">
         <v>0.80775361806717</v>
@@ -3202,7 +3204,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>68.5766666666666</v>
@@ -3226,7 +3228,7 @@
         <v>422.364666666666</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J16">
         <f>68.5766666666666/B16</f>
@@ -3257,7 +3259,7 @@
         <v>0.162363644686188</v>
       </c>
       <c r="Q16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -3282,6 +3284,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -14250,213 +14268,267 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="18.5583333333333" customWidth="1"/>
-    <col min="3" max="3" width="25.775" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="54.2166666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="8" width="25.775" customWidth="1"/>
+    <col min="9" max="9" width="25.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="54.2166666666667" customWidth="1"/>
+    <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>520129741</v>
-      </c>
-      <c r="C2">
-        <v>26305</v>
-      </c>
-      <c r="D2">
-        <v>34111803</v>
-      </c>
-      <c r="E2">
-        <f>C2/B2</f>
-        <v>5.05739201711982e-5</v>
-      </c>
-      <c r="F2">
-        <f>D2/B2</f>
-        <v>0.0655832580048523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>5201297418</v>
+      </c>
+      <c r="C3">
+        <v>341118038</v>
+      </c>
+      <c r="D3">
+        <v>263050</v>
+      </c>
+      <c r="E3">
+        <v>263050</v>
+      </c>
+      <c r="F3">
+        <v>263050</v>
+      </c>
+      <c r="G3">
+        <f>F3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>G3/E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1355689586</v>
-      </c>
-      <c r="C3">
-        <v>19228</v>
-      </c>
-      <c r="D3">
-        <v>72894192</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">C3/B3</f>
-        <v>1.4183187802403e-5</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="1">D3/B3</f>
-        <v>0.053769087520305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>13556895867</v>
+      </c>
+      <c r="C4">
+        <v>728941921</v>
+      </c>
+      <c r="D4">
+        <v>192284</v>
+      </c>
+      <c r="E4">
+        <v>193138</v>
+      </c>
+      <c r="F4">
+        <v>198468</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="0">F4-E4</f>
+        <v>5330</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="1">G4/E4</f>
+        <v>0.027596847849724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>2437394358</v>
-      </c>
-      <c r="C4">
-        <v>2234658</v>
-      </c>
-      <c r="D4">
-        <v>497739570</v>
-      </c>
-      <c r="E4">
+      <c r="B5">
+        <v>24373943589</v>
+      </c>
+      <c r="C5">
+        <v>4977395708</v>
+      </c>
+      <c r="D5">
+        <v>22346587</v>
+      </c>
+      <c r="E5">
+        <v>22346223</v>
+      </c>
+      <c r="F5">
+        <v>22347804</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.000916822504600218</v>
-      </c>
-      <c r="F4">
+        <v>1581</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.20420969974199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+        <v>7.07502113444406e-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2605695675</v>
-      </c>
-      <c r="C5">
-        <v>2168523</v>
-      </c>
-      <c r="D5">
-        <v>361103413</v>
-      </c>
-      <c r="E5">
+      <c r="B6">
+        <v>26056956754</v>
+      </c>
+      <c r="C6">
+        <v>3611034135</v>
+      </c>
+      <c r="D6">
+        <v>21685234</v>
+      </c>
+      <c r="E6">
+        <v>21684450</v>
+      </c>
+      <c r="F6">
+        <v>21685738</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.000832224200548669</v>
-      </c>
-      <c r="F5">
+        <v>1288</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.138582343465723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+        <v>5.93974022859699e-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1116549270</v>
-      </c>
-      <c r="C6">
-        <v>935024</v>
-      </c>
-      <c r="D6">
-        <v>58778304</v>
-      </c>
-      <c r="E6">
+      <c r="B7">
+        <v>11165492704</v>
+      </c>
+      <c r="C7">
+        <v>587783049</v>
+      </c>
+      <c r="D7">
+        <v>9350248</v>
+      </c>
+      <c r="E7">
+        <v>9350356</v>
+      </c>
+      <c r="F7">
+        <v>9351198</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.000837422964774318</v>
-      </c>
-      <c r="F6">
+        <v>842</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.0526428215747255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+        <v>9.0050047292317e-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>3543673674</v>
-      </c>
-      <c r="C7">
-        <v>7812419</v>
-      </c>
-      <c r="D7">
-        <v>689733622</v>
-      </c>
-      <c r="E7">
+      <c r="B8">
+        <v>35436736747</v>
+      </c>
+      <c r="C8">
+        <v>6897336228</v>
+      </c>
+      <c r="D8">
+        <v>78124192</v>
+      </c>
+      <c r="E8">
+        <v>78124243</v>
+      </c>
+      <c r="F8">
+        <v>78124374</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.00220461016411298</v>
-      </c>
-      <c r="F7">
+        <v>131</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.194638018466708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+        <v>1.67681624767871e-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>3325063585</v>
-      </c>
-      <c r="C8">
-        <v>585026</v>
-      </c>
-      <c r="D8">
-        <v>222729143</v>
-      </c>
-      <c r="E8">
+      <c r="B9">
+        <v>33250635854</v>
+      </c>
+      <c r="C9">
+        <v>2227291430</v>
+      </c>
+      <c r="D9">
+        <v>5850268</v>
+      </c>
+      <c r="E9">
+        <v>5850268</v>
+      </c>
+      <c r="F9">
+        <v>5850271</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.000175944304535758</v>
-      </c>
-      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.0669849274476356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+        <v>5.12797020580938e-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>427221144307</v>
-      </c>
-      <c r="C9">
-        <v>108360</v>
-      </c>
-      <c r="D9">
-        <v>4255231285</v>
-      </c>
-      <c r="E9">
+      <c r="B10">
+        <v>2019458657</v>
+      </c>
+      <c r="C10">
+        <v>42552312853</v>
+      </c>
+      <c r="D10">
+        <v>110302</v>
+      </c>
+      <c r="E10">
+        <v>103420</v>
+      </c>
+      <c r="F10">
+        <v>103828</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>2.53639131498915e-7</v>
-      </c>
-      <c r="F9">
+        <v>408</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.00996025440618689</v>
+        <v>0.00394507832140785</v>
       </c>
     </row>
   </sheetData>
@@ -14501,67 +14573,67 @@
     </row>
     <row r="2" spans="2:28">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
       <c r="AA2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:28">

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="38">
   <si>
     <t>native</t>
   </si>
@@ -104,6 +104,9 @@
     <t>store instrument</t>
   </si>
   <si>
+    <t>LL/SC</t>
+  </si>
+  <si>
     <t>instrutions</t>
   </si>
   <si>
@@ -142,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,8 +167,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +204,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -194,38 +211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,17 +235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,15 +251,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,15 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -309,13 +312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +342,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,85 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,43 +438,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,8 +524,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +590,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -571,176 +603,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2496,7 +2499,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>16.516</v>
@@ -2520,7 +2523,7 @@
         <v>3.161</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <f>15.8606666666666/B2</f>
@@ -2551,7 +2554,7 @@
         <v>5.01761046082461</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2">
         <v>0.960321304593521</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>15.8606666666666</v>
@@ -2601,7 +2604,7 @@
         <v>2.553</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <f>15.8606666666666/B3</f>
@@ -2632,7 +2635,7 @@
         <v>6.2125603864734</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2702,7 +2705,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>31.918</v>
@@ -2726,7 +2729,7 @@
         <v>15.856</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8">
         <f>32.2866666666666/B8</f>
@@ -2757,7 +2760,7 @@
         <v>2.0362428523377</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R8">
         <v>1.01155043131357</v>
@@ -2783,7 +2786,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
         <v>32.2866666666666</v>
@@ -2807,7 +2810,7 @@
         <v>63.1083333333333</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9">
         <f>32.2866666666666/B9</f>
@@ -2838,7 +2841,7 @@
         <v>0.511607024957084</v>
       </c>
       <c r="Q9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2908,7 +2911,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>409.138</v>
@@ -2932,7 +2935,7 @@
         <v>408.998</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <f>210.569333333333/B12</f>
@@ -2963,7 +2966,7 @@
         <v>0.514841963367383</v>
       </c>
       <c r="Q12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R12">
         <v>0.51466579328572</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
         <v>210.569333333333</v>
@@ -3013,7 +3016,7 @@
         <v>197.253</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J13">
         <f>210.569333333333/B13</f>
@@ -3044,7 +3047,7 @@
         <v>1.06750890142778</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -3123,7 +3126,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>84.898</v>
@@ -3147,7 +3150,7 @@
         <v>258.841</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15">
         <f>68.5766666666666/B15</f>
@@ -3178,7 +3181,7 @@
         <v>0.264937419754469</v>
       </c>
       <c r="Q15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R15">
         <v>0.80775361806717</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>68.5766666666666</v>
@@ -3228,7 +3231,7 @@
         <v>422.364666666666</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J16">
         <f>68.5766666666666/B16</f>
@@ -3259,7 +3262,7 @@
         <v>0.162363644686188</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -14268,10 +14271,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14284,27 +14287,32 @@
     <col min="11" max="11" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14573,67 +14581,67 @@
     </row>
     <row r="2" spans="2:28">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:28">

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="HST" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="store and LLSC" sheetId="8" r:id="rId8"/>
     <sheet name="false alarm" sheetId="10" r:id="rId9"/>
     <sheet name="PST-remap" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId11"/>
+    <sheet name="remap-profile" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="44">
   <si>
     <t>native</t>
   </si>
@@ -139,6 +139,24 @@
   <si>
     <t>remap</t>
   </si>
+  <si>
+    <t>ll_time/s</t>
+  </si>
+  <si>
+    <t>map_time/s</t>
+  </si>
+  <si>
+    <t>pf_counter</t>
+  </si>
+  <si>
+    <t>false_alarm</t>
+  </si>
+  <si>
+    <t>false_sc</t>
+  </si>
+  <si>
+    <t>sc count</t>
+  </si>
 </sst>
 </file>
 
@@ -146,9 +164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,22 +186,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,17 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,29 +246,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,18 +275,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +330,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,25 +438,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,73 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,67 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,27 +546,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,21 +582,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,123 +595,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,22 +746,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3295,14 +3313,703 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="6" width="12.625"/>
+    <col min="7" max="7" width="9.375"/>
+    <col min="8" max="18" width="12.625"/>
+    <col min="19" max="19" width="9.375"/>
+    <col min="20" max="21" width="12.625"/>
+    <col min="23" max="24" width="12.625"/>
+    <col min="25" max="25" width="9.375"/>
+    <col min="26" max="43" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="N1">
+        <v>4</v>
+      </c>
+      <c r="T1">
+        <v>8</v>
+      </c>
+      <c r="Z1">
+        <v>16</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AL1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="2:43">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.215342333333333</v>
+      </c>
+      <c r="C3">
+        <v>1.11963133333333</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>263002</v>
+      </c>
+      <c r="H3">
+        <v>0.220732999999999</v>
+      </c>
+      <c r="I3">
+        <v>1.13433733333333</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>263020</v>
+      </c>
+      <c r="N3">
+        <v>0.215490666666666</v>
+      </c>
+      <c r="O3">
+        <v>1.13066233333333</v>
+      </c>
+      <c r="P3">
+        <v>5.33333333333333</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>263056</v>
+      </c>
+      <c r="T3">
+        <v>0.215496666666666</v>
+      </c>
+      <c r="U3">
+        <v>1.14361333333333</v>
+      </c>
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>263123</v>
+      </c>
+      <c r="Z3">
+        <v>0.221835333333333</v>
+      </c>
+      <c r="AA3">
+        <v>1.18402566666666</v>
+      </c>
+      <c r="AB3">
+        <v>131</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>263283</v>
+      </c>
+      <c r="AF3">
+        <v>0.222918999999999</v>
+      </c>
+      <c r="AG3">
+        <v>1.23830866666666</v>
+      </c>
+      <c r="AH3">
+        <v>486</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AK3">
+        <v>263603.333333333</v>
+      </c>
+      <c r="AL3">
+        <v>0.228446333333333</v>
+      </c>
+      <c r="AM3">
+        <v>1.35242266666666</v>
+      </c>
+      <c r="AN3">
+        <v>1541</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>264243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.219230333333333</v>
+      </c>
+      <c r="C4">
+        <v>1.10567933333333</v>
+      </c>
+      <c r="D4">
+        <v>29.3333333333333</v>
+      </c>
+      <c r="E4">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="F4">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="G4">
+        <v>182707</v>
+      </c>
+      <c r="H4">
+        <v>0.436810333333333</v>
+      </c>
+      <c r="I4">
+        <v>1.90492233333333</v>
+      </c>
+      <c r="J4">
+        <v>6889.66666666666</v>
+      </c>
+      <c r="K4">
+        <v>2.66666666666666</v>
+      </c>
+      <c r="L4">
+        <v>6.33333333333333</v>
+      </c>
+      <c r="M4">
+        <v>183858</v>
+      </c>
+      <c r="N4">
+        <v>0.577742333333333</v>
+      </c>
+      <c r="O4">
+        <v>2.513659</v>
+      </c>
+      <c r="P4">
+        <v>18692</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4">
+        <v>38</v>
+      </c>
+      <c r="S4">
+        <v>189234</v>
+      </c>
+      <c r="T4">
+        <v>0.736290333333333</v>
+      </c>
+      <c r="U4">
+        <v>3.161926</v>
+      </c>
+      <c r="V4">
+        <v>24462</v>
+      </c>
+      <c r="W4">
+        <v>49.6666666666666</v>
+      </c>
+      <c r="X4">
+        <v>80.3333333333333</v>
+      </c>
+      <c r="Y4">
+        <v>197211</v>
+      </c>
+      <c r="Z4">
+        <v>0.925816333333333</v>
+      </c>
+      <c r="AA4">
+        <v>4.029153</v>
+      </c>
+      <c r="AB4">
+        <v>55662.6666666666</v>
+      </c>
+      <c r="AC4">
+        <v>151</v>
+      </c>
+      <c r="AD4">
+        <v>206.333333333333</v>
+      </c>
+      <c r="AE4">
+        <v>213341.333333333</v>
+      </c>
+      <c r="AF4">
+        <v>1.20922266666666</v>
+      </c>
+      <c r="AG4">
+        <v>5.413516</v>
+      </c>
+      <c r="AH4">
+        <v>111032.666666666</v>
+      </c>
+      <c r="AI4">
+        <v>1321.33333333333</v>
+      </c>
+      <c r="AJ4">
+        <v>871.666666666666</v>
+      </c>
+      <c r="AK4">
+        <v>247693.333333333</v>
+      </c>
+      <c r="AL4">
+        <v>1.78673033333333</v>
+      </c>
+      <c r="AM4">
+        <v>7.628959</v>
+      </c>
+      <c r="AN4">
+        <v>114237.666666666</v>
+      </c>
+      <c r="AO4">
+        <v>2571.33333333333</v>
+      </c>
+      <c r="AP4">
+        <v>2027.33333333333</v>
+      </c>
+      <c r="AQ4">
+        <v>311102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>61.9160296666666</v>
+      </c>
+      <c r="C5">
+        <v>321.338995666666</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>78123503</v>
+      </c>
+      <c r="H5">
+        <v>61.6793323333333</v>
+      </c>
+      <c r="I5">
+        <v>321.089282333333</v>
+      </c>
+      <c r="J5">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>78123650.6666666</v>
+      </c>
+      <c r="N5">
+        <v>63.249129</v>
+      </c>
+      <c r="O5">
+        <v>323.067732333333</v>
+      </c>
+      <c r="P5">
+        <v>241.666666666666</v>
+      </c>
+      <c r="Q5">
+        <v>0.666666666666666</v>
+      </c>
+      <c r="R5">
+        <v>0.666666666666666</v>
+      </c>
+      <c r="S5">
+        <v>78123989</v>
+      </c>
+      <c r="T5">
+        <v>61.6664856666666</v>
+      </c>
+      <c r="U5">
+        <v>318.778074</v>
+      </c>
+      <c r="V5">
+        <v>454</v>
+      </c>
+      <c r="W5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>78124370</v>
+      </c>
+      <c r="Z5">
+        <v>63.548984</v>
+      </c>
+      <c r="AA5">
+        <v>325.023241666666</v>
+      </c>
+      <c r="AB5">
+        <v>735.333333333333</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>78125063</v>
+      </c>
+      <c r="AF5">
+        <v>61.592367</v>
+      </c>
+      <c r="AG5">
+        <v>318.59256</v>
+      </c>
+      <c r="AH5">
+        <v>1392.33333333333</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>3.66666666666666</v>
+      </c>
+      <c r="AK5">
+        <v>78126919.3333333</v>
+      </c>
+      <c r="AL5">
+        <v>61.9374526666666</v>
+      </c>
+      <c r="AM5">
+        <v>320.164328999999</v>
+      </c>
+      <c r="AN5">
+        <v>2754.66666666666</v>
+      </c>
+      <c r="AO5">
+        <v>21</v>
+      </c>
+      <c r="AP5">
+        <v>7.33333333333333</v>
+      </c>
+      <c r="AQ5">
+        <v>78131128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3.37825866666666</v>
+      </c>
+      <c r="C6">
+        <v>23.4603583333333</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5767699</v>
+      </c>
+      <c r="H6">
+        <v>16.9935203333333</v>
+      </c>
+      <c r="I6">
+        <v>79.1534596666666</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5712724</v>
+      </c>
+      <c r="N6">
+        <v>18.8445516666666</v>
+      </c>
+      <c r="O6">
+        <v>94.5531423333333</v>
+      </c>
+      <c r="P6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>5850274</v>
+      </c>
+      <c r="T6">
+        <v>21.3824563333333</v>
+      </c>
+      <c r="U6">
+        <v>106.174007333333</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Y6">
+        <v>6070381</v>
+      </c>
+      <c r="Z6">
+        <v>24.018636</v>
+      </c>
+      <c r="AA6">
+        <v>123.999364666666</v>
+      </c>
+      <c r="AB6">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="AC6">
+        <v>0.666666666666666</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>6538100.33333333</v>
+      </c>
+      <c r="AF6">
+        <v>28.0341576666666</v>
+      </c>
+      <c r="AG6">
+        <v>158.175148333333</v>
+      </c>
+      <c r="AH6">
+        <v>3.66666666666666</v>
+      </c>
+      <c r="AI6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AJ6">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="AK6">
+        <v>7363537.33333333</v>
+      </c>
+      <c r="AL6">
+        <v>27.6115616666666</v>
+      </c>
+      <c r="AM6">
+        <v>172.172137666666</v>
+      </c>
+      <c r="AN6">
+        <v>7.33333333333333</v>
+      </c>
+      <c r="AO6">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>7364408.33333333</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -14273,7 +14980,7 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="42">
   <si>
     <t>native</t>
   </si>
@@ -140,12 +140,6 @@
     <t>remap</t>
   </si>
   <si>
-    <t>ll_time/s</t>
-  </si>
-  <si>
-    <t>map_time/s</t>
-  </si>
-  <si>
     <t>pf_counter</t>
   </si>
   <si>
@@ -163,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -177,19 +171,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,22 +201,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,22 +232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,24 +254,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,10 +269,49 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -330,13 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,13 +348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,25 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,25 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,25 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,19 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,24 +523,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,17 +598,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,121 +620,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,25 +743,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3313,51 +3307,41 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="6" width="12.625"/>
-    <col min="7" max="7" width="9.375"/>
-    <col min="8" max="18" width="12.625"/>
-    <col min="19" max="19" width="9.375"/>
-    <col min="20" max="21" width="12.625"/>
-    <col min="23" max="24" width="12.625"/>
-    <col min="25" max="25" width="9.375"/>
-    <col min="26" max="43" width="12.625"/>
+    <col min="2" max="43" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
+    <row r="1" spans="2:26">
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="F1">
         <v>2</v>
       </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
       <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="T1">
         <v>8</v>
       </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="V1">
+        <v>32</v>
+      </c>
       <c r="Z1">
-        <v>16</v>
-      </c>
-      <c r="AF1">
-        <v>32</v>
-      </c>
-      <c r="AL1">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="2:43">
+    <row r="2" spans="2:29">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -3371,28 +3355,28 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>38</v>
@@ -3407,28 +3391,28 @@
         <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>43</v>
       </c>
       <c r="Z2" t="s">
         <v>38</v>
@@ -3442,79 +3426,37 @@
       <c r="AC2" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.215342333333333</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.11963133333333</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>263002</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>263002</v>
-      </c>
-      <c r="H3">
-        <v>0.220732999999999</v>
-      </c>
       <c r="I3">
-        <v>1.13433733333333</v>
+        <v>263020</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5.33333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3523,391 +3465,265 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>263020</v>
+        <v>263056</v>
       </c>
       <c r="N3">
-        <v>0.215490666666666</v>
+        <v>30</v>
       </c>
       <c r="O3">
-        <v>1.13066233333333</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>263123</v>
+      </c>
+      <c r="R3">
+        <v>131</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0</v>
       </c>
-      <c r="S3">
-        <v>263056</v>
-      </c>
-      <c r="T3">
-        <v>0.215496666666666</v>
-      </c>
       <c r="U3">
-        <v>1.14361333333333</v>
+        <v>263283</v>
       </c>
       <c r="V3">
-        <v>30</v>
+        <v>486</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Y3">
+        <v>263603.333333333</v>
+      </c>
+      <c r="Z3">
+        <v>1541</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
-      <c r="Y3">
-        <v>263123</v>
-      </c>
-      <c r="Z3">
-        <v>0.221835333333333</v>
-      </c>
-      <c r="AA3">
-        <v>1.18402566666666</v>
-      </c>
       <c r="AB3">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>263283</v>
-      </c>
-      <c r="AF3">
-        <v>0.222918999999999</v>
-      </c>
-      <c r="AG3">
-        <v>1.23830866666666</v>
-      </c>
-      <c r="AH3">
-        <v>486</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AK3">
-        <v>263603.333333333</v>
-      </c>
-      <c r="AL3">
-        <v>0.228446333333333</v>
-      </c>
-      <c r="AM3">
-        <v>1.35242266666666</v>
-      </c>
-      <c r="AN3">
-        <v>1541</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
         <v>264243</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.219230333333333</v>
+        <v>29.3333333333333</v>
       </c>
       <c r="C4">
-        <v>1.10567933333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D4">
-        <v>29.3333333333333</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="E4">
-        <v>0.333333333333333</v>
+        <v>182707</v>
       </c>
       <c r="F4">
-        <v>3.33333333333333</v>
+        <v>6889.66666666666</v>
       </c>
       <c r="G4">
-        <v>182707</v>
+        <v>2.66666666666666</v>
       </c>
       <c r="H4">
-        <v>0.436810333333333</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="I4">
-        <v>1.90492233333333</v>
+        <v>183858</v>
       </c>
       <c r="J4">
-        <v>6889.66666666666</v>
+        <v>18692</v>
       </c>
       <c r="K4">
-        <v>2.66666666666666</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>6.33333333333333</v>
+        <v>38</v>
       </c>
       <c r="M4">
-        <v>183858</v>
+        <v>189234</v>
       </c>
       <c r="N4">
-        <v>0.577742333333333</v>
+        <v>24462</v>
       </c>
       <c r="O4">
-        <v>2.513659</v>
+        <v>49.6666666666666</v>
       </c>
       <c r="P4">
-        <v>18692</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>197211</v>
       </c>
       <c r="R4">
-        <v>38</v>
+        <v>55662.6666666666</v>
       </c>
       <c r="S4">
-        <v>189234</v>
+        <v>151</v>
       </c>
       <c r="T4">
-        <v>0.736290333333333</v>
+        <v>206.333333333333</v>
       </c>
       <c r="U4">
-        <v>3.161926</v>
+        <v>213341.333333333</v>
       </c>
       <c r="V4">
-        <v>24462</v>
+        <v>111032.666666666</v>
       </c>
       <c r="W4">
-        <v>49.6666666666666</v>
+        <v>1321.33333333333</v>
       </c>
       <c r="X4">
-        <v>80.3333333333333</v>
+        <v>871.666666666666</v>
       </c>
       <c r="Y4">
-        <v>197211</v>
+        <v>247693.333333333</v>
       </c>
       <c r="Z4">
-        <v>0.925816333333333</v>
+        <v>114237.666666666</v>
       </c>
       <c r="AA4">
-        <v>4.029153</v>
+        <v>2571.33333333333</v>
       </c>
       <c r="AB4">
-        <v>55662.6666666666</v>
+        <v>2027.33333333333</v>
       </c>
       <c r="AC4">
-        <v>151</v>
-      </c>
-      <c r="AD4">
-        <v>206.333333333333</v>
-      </c>
-      <c r="AE4">
-        <v>213341.333333333</v>
-      </c>
-      <c r="AF4">
-        <v>1.20922266666666</v>
-      </c>
-      <c r="AG4">
-        <v>5.413516</v>
-      </c>
-      <c r="AH4">
-        <v>111032.666666666</v>
-      </c>
-      <c r="AI4">
-        <v>1321.33333333333</v>
-      </c>
-      <c r="AJ4">
-        <v>871.666666666666</v>
-      </c>
-      <c r="AK4">
-        <v>247693.333333333</v>
-      </c>
-      <c r="AL4">
-        <v>1.78673033333333</v>
-      </c>
-      <c r="AM4">
-        <v>7.628959</v>
-      </c>
-      <c r="AN4">
-        <v>114237.666666666</v>
-      </c>
-      <c r="AO4">
-        <v>2571.33333333333</v>
-      </c>
-      <c r="AP4">
-        <v>2027.33333333333</v>
-      </c>
-      <c r="AQ4">
         <v>311102</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>61.9160296666666</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>321.338995666666</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>78123503</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>78123503</v>
-      </c>
-      <c r="H5">
-        <v>61.6793323333333</v>
-      </c>
       <c r="I5">
-        <v>321.089282333333</v>
+        <v>78123650.6666666</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>241.666666666666</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="M5">
-        <v>78123650.6666666</v>
+        <v>78123989</v>
       </c>
       <c r="N5">
-        <v>63.249129</v>
+        <v>454</v>
       </c>
       <c r="O5">
-        <v>323.067732333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P5">
-        <v>241.666666666666</v>
+        <v>2</v>
       </c>
       <c r="Q5">
-        <v>0.666666666666666</v>
+        <v>78124370</v>
       </c>
       <c r="R5">
-        <v>0.666666666666666</v>
+        <v>735.333333333333</v>
       </c>
       <c r="S5">
-        <v>78123989</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>61.6664856666666</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>318.778074</v>
+        <v>78125063</v>
       </c>
       <c r="V5">
-        <v>454</v>
+        <v>1392.33333333333</v>
       </c>
       <c r="W5">
-        <v>0.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>3.66666666666666</v>
       </c>
       <c r="Y5">
-        <v>78124370</v>
+        <v>78126919.3333333</v>
       </c>
       <c r="Z5">
-        <v>63.548984</v>
+        <v>2754.66666666666</v>
       </c>
       <c r="AA5">
-        <v>325.023241666666</v>
+        <v>21</v>
       </c>
       <c r="AB5">
-        <v>735.333333333333</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>78125063</v>
-      </c>
-      <c r="AF5">
-        <v>61.592367</v>
-      </c>
-      <c r="AG5">
-        <v>318.59256</v>
-      </c>
-      <c r="AH5">
-        <v>1392.33333333333</v>
-      </c>
-      <c r="AI5">
-        <v>2</v>
-      </c>
-      <c r="AJ5">
-        <v>3.66666666666666</v>
-      </c>
-      <c r="AK5">
-        <v>78126919.3333333</v>
-      </c>
-      <c r="AL5">
-        <v>61.9374526666666</v>
-      </c>
-      <c r="AM5">
-        <v>320.164328999999</v>
-      </c>
-      <c r="AN5">
-        <v>2754.66666666666</v>
-      </c>
-      <c r="AO5">
-        <v>21</v>
-      </c>
-      <c r="AP5">
-        <v>7.33333333333333</v>
-      </c>
-      <c r="AQ5">
         <v>78131128</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>3.37825866666666</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>23.4603583333333</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5767699</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5767699</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>16.9935203333333</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>79.1534596666666</v>
+        <v>5712724</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -3916,96 +3732,54 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5712724</v>
+        <v>5850274</v>
       </c>
       <c r="N6">
-        <v>18.8445516666666</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>94.5531423333333</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0.333333333333333</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>6070381</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.33333333333333</v>
       </c>
       <c r="S6">
-        <v>5850274</v>
+        <v>0.666666666666666</v>
       </c>
       <c r="T6">
-        <v>21.3824563333333</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>106.174007333333</v>
+        <v>6538100.33333333</v>
       </c>
       <c r="V6">
+        <v>3.66666666666666</v>
+      </c>
+      <c r="W6">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="X6">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="Y6">
+        <v>7363537.33333333</v>
+      </c>
+      <c r="Z6">
+        <v>7.33333333333333</v>
+      </c>
+      <c r="AA6">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="AB6">
         <v>2</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="Y6">
-        <v>6070381</v>
-      </c>
-      <c r="Z6">
-        <v>24.018636</v>
-      </c>
-      <c r="AA6">
-        <v>123.999364666666</v>
-      </c>
-      <c r="AB6">
-        <v>1.33333333333333</v>
-      </c>
       <c r="AC6">
-        <v>0.666666666666666</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>6538100.33333333</v>
-      </c>
-      <c r="AF6">
-        <v>28.0341576666666</v>
-      </c>
-      <c r="AG6">
-        <v>158.175148333333</v>
-      </c>
-      <c r="AH6">
-        <v>3.66666666666666</v>
-      </c>
-      <c r="AI6">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="AJ6">
-        <v>1.33333333333333</v>
-      </c>
-      <c r="AK6">
-        <v>7363537.33333333</v>
-      </c>
-      <c r="AL6">
-        <v>27.6115616666666</v>
-      </c>
-      <c r="AM6">
-        <v>172.172137666666</v>
-      </c>
-      <c r="AN6">
-        <v>7.33333333333333</v>
-      </c>
-      <c r="AO6">
-        <v>2.33333333333333</v>
-      </c>
-      <c r="AP6">
-        <v>2</v>
-      </c>
-      <c r="AQ6">
         <v>7364408.33333333</v>
       </c>
     </row>

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="4" activeTab="10"/>
+    <workbookView windowWidth="22770" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="HST" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="44">
   <si>
     <t>native</t>
   </si>
@@ -68,6 +68,15 @@
     <t>HST-all</t>
   </si>
   <si>
+    <t>Pico-ST</t>
+  </si>
+  <si>
+    <t>SpeedUp Over Pico 1 thread</t>
+  </si>
+  <si>
+    <t>geomean</t>
+  </si>
+  <si>
     <t>exclusive time</t>
   </si>
   <si>
@@ -93,9 +102,6 @@
   </si>
   <si>
     <t>store only</t>
-  </si>
-  <si>
-    <t>Pico-ST</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -171,18 +177,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,23 +199,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +232,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,15 +247,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +267,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -268,24 +282,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +307,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +330,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,25 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,145 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +533,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -542,17 +557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +584,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -586,152 +621,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,25 +749,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,15 +1103,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="9" width="12.6666666666667"/>
     <col min="10" max="10" width="13.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="13.775"/>
@@ -2160,7 +2166,7 @@
         <v>31.87350566667</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2177,22 +2183,19 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2208,23 +2211,20 @@
       <c r="E38">
         <v>65.855</v>
       </c>
-      <c r="F38">
-        <v>14.7276666667</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="3">
         <v>19.6016666667</v>
       </c>
+      <c r="G38">
+        <v>72.4983333333</v>
+      </c>
       <c r="H38">
-        <v>72.4983333333</v>
+        <v>59.1208333333</v>
       </c>
       <c r="I38">
-        <v>59.1208333333</v>
-      </c>
-      <c r="J38">
         <v>234.131333333</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2240,23 +2240,20 @@
       <c r="E39">
         <v>41.534</v>
       </c>
-      <c r="F39">
-        <v>6.65083333333</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="F39" s="3">
         <v>27.745</v>
       </c>
+      <c r="G39">
+        <v>42.7905</v>
+      </c>
       <c r="H39">
-        <v>42.7905</v>
+        <v>56.7651666667</v>
       </c>
       <c r="I39">
-        <v>56.7651666667</v>
-      </c>
-      <c r="J39">
         <v>122.8235</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2272,23 +2269,20 @@
       <c r="E40">
         <v>30.022</v>
       </c>
-      <c r="F40">
-        <v>1.50266666667</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="F40" s="3">
         <v>107.818</v>
       </c>
+      <c r="G40">
+        <v>35.066</v>
+      </c>
       <c r="H40">
-        <v>35.066</v>
+        <v>107.303</v>
       </c>
       <c r="I40">
-        <v>107.303</v>
-      </c>
-      <c r="J40">
         <v>64.1523333333</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2304,23 +2298,20 @@
       <c r="E41">
         <v>24.369</v>
       </c>
-      <c r="F41">
-        <v>1.36466666667</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="3">
         <v>218.031666667</v>
       </c>
+      <c r="G41">
+        <v>31.6816666667</v>
+      </c>
       <c r="H41">
-        <v>31.6816666667</v>
+        <v>188.299333333</v>
       </c>
       <c r="I41">
-        <v>188.299333333</v>
-      </c>
-      <c r="J41">
         <v>41.9348333333</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2336,23 +2327,20 @@
       <c r="E42">
         <v>26.965</v>
       </c>
-      <c r="F42">
-        <v>1.4465</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F42" s="3">
         <v>300.866</v>
       </c>
+      <c r="G42">
+        <v>33.2503333333</v>
+      </c>
       <c r="H42">
-        <v>33.2503333333</v>
+        <v>318.406</v>
       </c>
       <c r="I42">
-        <v>318.406</v>
-      </c>
-      <c r="J42">
         <v>40.9285</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>32</v>
       </c>
@@ -2368,23 +2356,20 @@
       <c r="E43">
         <v>40.714</v>
       </c>
-      <c r="F43">
-        <v>7.77666666667</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3">
         <v>459.408333333</v>
       </c>
+      <c r="G43">
+        <v>33.9981666667</v>
+      </c>
       <c r="H43">
-        <v>33.9981666667</v>
+        <v>378.520666667</v>
       </c>
       <c r="I43">
-        <v>378.520666667</v>
-      </c>
-      <c r="J43">
         <v>39.1365</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>64</v>
       </c>
@@ -2400,20 +2385,801 @@
       <c r="E44">
         <v>83.332</v>
       </c>
-      <c r="F44">
-        <v>8.4135</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="F44" s="3">
         <v>656.216666667</v>
       </c>
+      <c r="G44">
+        <v>34.0913333333</v>
+      </c>
       <c r="H44">
-        <v>34.0913333333</v>
+        <v>362.384333333</v>
       </c>
       <c r="I44">
-        <v>362.384333333</v>
-      </c>
-      <c r="J44">
         <v>35.9595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C47">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D47">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E47">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F47">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G47">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H47">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I47">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>10.836</v>
+      </c>
+      <c r="C48">
+        <v>22.681</v>
+      </c>
+      <c r="D48">
+        <v>106.237</v>
+      </c>
+      <c r="E48">
+        <v>73.1726666666666</v>
+      </c>
+      <c r="F48">
+        <v>45.7103333333333</v>
+      </c>
+      <c r="G48">
+        <v>102.639</v>
+      </c>
+      <c r="H48">
+        <v>90.3273333333333</v>
+      </c>
+      <c r="I48">
+        <v>321.688666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>6.68966666666666</v>
+      </c>
+      <c r="C49">
+        <v>15.4736666666666</v>
+      </c>
+      <c r="D49">
+        <v>122</v>
+      </c>
+      <c r="E49">
+        <v>56.6496666666666</v>
+      </c>
+      <c r="F49">
+        <v>204.740999999999</v>
+      </c>
+      <c r="G49">
+        <v>72.213</v>
+      </c>
+      <c r="H49">
+        <v>237.506333333333</v>
+      </c>
+      <c r="I49">
+        <v>168.488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>4.648</v>
+      </c>
+      <c r="C50">
+        <v>17.2926666666666</v>
+      </c>
+      <c r="D50">
+        <v>139.605333333333</v>
+      </c>
+      <c r="E50">
+        <v>51.2143333333333</v>
+      </c>
+      <c r="F50">
+        <v>427.487666666666</v>
+      </c>
+      <c r="G50">
+        <v>71.3236666666666</v>
+      </c>
+      <c r="H50">
+        <v>410.636666666666</v>
+      </c>
+      <c r="I50">
+        <v>108.803999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>3.728</v>
+      </c>
+      <c r="C51">
+        <v>17.2506666666666</v>
+      </c>
+      <c r="D51">
+        <v>172.233666666666</v>
+      </c>
+      <c r="E51">
+        <v>61.3993333333333</v>
+      </c>
+      <c r="F51">
+        <v>753.626333333333</v>
+      </c>
+      <c r="G51">
+        <v>71.016</v>
+      </c>
+      <c r="H51">
+        <v>628.226666666666</v>
+      </c>
+      <c r="I51">
+        <v>107.652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>32</v>
+      </c>
+      <c r="B52">
+        <v>3.331</v>
+      </c>
+      <c r="C52">
+        <v>24.4506666666666</v>
+      </c>
+      <c r="D52">
+        <v>221.830666666666</v>
+      </c>
+      <c r="E52">
+        <v>93.0533333333333</v>
+      </c>
+      <c r="F52">
+        <v>1475.754</v>
+      </c>
+      <c r="G52">
+        <v>72.0976666666666</v>
+      </c>
+      <c r="H52">
+        <v>739.057</v>
+      </c>
+      <c r="I52">
+        <v>101.416333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>3.59866666666666</v>
+      </c>
+      <c r="C53">
+        <v>52.4806666666666</v>
+      </c>
+      <c r="D53">
+        <v>255.597999999999</v>
+      </c>
+      <c r="E53">
+        <v>172.898666666666</v>
+      </c>
+      <c r="F53">
+        <v>1981.66533333333</v>
+      </c>
+      <c r="G53">
+        <v>83.0176666666666</v>
+      </c>
+      <c r="H53">
+        <v>766.952</v>
+      </c>
+      <c r="I53">
+        <v>90.0696666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1.27320626065396</v>
+      </c>
+      <c r="C56">
+        <v>1.26644016130568</v>
+      </c>
+      <c r="D56">
+        <v>2.1902200522235</v>
+      </c>
+      <c r="E56">
+        <v>1.65152734543061</v>
+      </c>
+      <c r="F56">
+        <v>1.24605050590724</v>
+      </c>
+      <c r="G56">
+        <v>2.04965171613234</v>
+      </c>
+      <c r="H56">
+        <v>1.42262315878578</v>
+      </c>
+      <c r="I56">
+        <v>2.66714692893542</v>
+      </c>
+      <c r="J56">
+        <f>GEOMEAN(B56:I56)</f>
+        <v>1.6558698034785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57"/>
+      <c r="C57">
+        <f t="shared" ref="C57:I57" si="0">C47/C48*C56</f>
+        <v>2.2270049554039</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2.21340658314398</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>2.45477340526281</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0.665809370381947</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>2.96739767171971</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1.3246498860619</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>5.17747081640476</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J63" si="1">GEOMEAN(B57:I57)</f>
+        <v>2.07200678388535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <f>B48/B49*B57</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>C48/C49*C57</f>
+        <v>3.26430060060205</v>
+      </c>
+      <c r="D58">
+        <f>D48/D49*D57</f>
+        <v>1.92742356699563</v>
+      </c>
+      <c r="E58">
+        <f>E48/E49*E57</f>
+        <v>3.1707568057269</v>
+      </c>
+      <c r="F58">
+        <f>F48/F49*F57</f>
+        <v>0.148648137190967</v>
+      </c>
+      <c r="G58">
+        <f>G48/G49*G57</f>
+        <v>4.21767174369767</v>
+      </c>
+      <c r="H58">
+        <f>H48/H49*H57</f>
+        <v>0.503784847035415</v>
+      </c>
+      <c r="I58">
+        <f>I48/I49*I57</f>
+        <v>9.88517688876846</v>
+      </c>
+      <c r="J58" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <f>B49/B50*B58</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>C49/C50*C58</f>
+        <v>2.92093176646262</v>
+      </c>
+      <c r="D59">
+        <f>D49/D50*D58</f>
+        <v>1.68436025729772</v>
+      </c>
+      <c r="E59">
+        <f>E49/E50*E58</f>
+        <v>3.50726650987341</v>
+      </c>
+      <c r="F59">
+        <f>F49/F50*F58</f>
+        <v>0.071193558621065</v>
+      </c>
+      <c r="G59">
+        <f>G49/G50*G58</f>
+        <v>4.27026180595931</v>
+      </c>
+      <c r="H59">
+        <f>H49/H50*H58</f>
+        <v>0.291381899184865</v>
+      </c>
+      <c r="I59">
+        <f>I49/I50*I58</f>
+        <v>15.3076512227017</v>
+      </c>
+      <c r="J59" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <f>B50/B51*B59</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>C50/C51*C59</f>
+        <v>2.92804332548593</v>
+      </c>
+      <c r="D60">
+        <f>D50/D51*D59</f>
+        <v>1.3652712604009</v>
+      </c>
+      <c r="E60">
+        <f>E50/E51*E59</f>
+        <v>2.92547665217039</v>
+      </c>
+      <c r="F60">
+        <f>F50/F51*F59</f>
+        <v>0.0403838970461696</v>
+      </c>
+      <c r="G60">
+        <f>G50/G51*G59</f>
+        <v>4.28876210470373</v>
+      </c>
+      <c r="H60">
+        <f>H50/H51*H59</f>
+        <v>0.190460065064004</v>
+      </c>
+      <c r="I60">
+        <f>I50/I51*I59</f>
+        <v>15.4714606661727</v>
+      </c>
+      <c r="J60" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>32</v>
+      </c>
+      <c r="B61">
+        <f>B51/B52*B60</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C51/C52*C60</f>
+        <v>2.06582094803888</v>
+      </c>
+      <c r="D61">
+        <f>D51/D52*D60</f>
+        <v>1.06002329933403</v>
+      </c>
+      <c r="E61">
+        <f>E51/E52*E60</f>
+        <v>1.93031576291905</v>
+      </c>
+      <c r="F61">
+        <f>F51/F52*F60</f>
+        <v>0.0206229278434045</v>
+      </c>
+      <c r="G61">
+        <f>G51/G52*G60</f>
+        <v>4.22441867690087</v>
+      </c>
+      <c r="H61">
+        <f>H51/H52*H60</f>
+        <v>0.161898326933207</v>
+      </c>
+      <c r="I61">
+        <f>I51/I52*I60</f>
+        <v>16.4227361500103</v>
+      </c>
+      <c r="J61" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <f>B52/B53*B61</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>C52/C53*C61</f>
+        <v>0.962462990692112</v>
+      </c>
+      <c r="D62">
+        <f>D52/D53*D61</f>
+        <v>0.919982453593018</v>
+      </c>
+      <c r="E62">
+        <f>E52/E53*E61</f>
+        <v>1.03888780398631</v>
+      </c>
+      <c r="F62">
+        <f>F52/F53*F61</f>
+        <v>0.0153579758119008</v>
+      </c>
+      <c r="G62">
+        <f>G52/G53*G61</f>
+        <v>3.66874596524804</v>
+      </c>
+      <c r="H62">
+        <f>H52/H53*H61</f>
+        <v>0.156009883028241</v>
+      </c>
+      <c r="I62">
+        <f>I52/I53*I61</f>
+        <v>18.4916159376796</v>
+      </c>
+      <c r="J62" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="e">
+        <f>GEOMEAN(B56:B62)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:I63" si="2">GEOMEAN(C56:C62)</f>
+        <v>2.05837509433041</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>1.54437787688612</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>2.21850473624252</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0.101670952619147</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>3.56240102797356</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>0.388290461086318</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>9.97374985368446</v>
+      </c>
+      <c r="J63" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C66">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D66">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E66">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F66">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G66">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H66">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I66">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C67">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D67">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E67">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F67">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G67">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H67">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I67">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C68">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D68">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E68">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F68">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G68">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H68">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I68">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C69">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D69">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E69">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F69">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G69">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H69">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I69">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C70">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D70">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E70">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F70">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G70">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H70">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I70">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C71">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D71">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E71">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F71">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G71">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H71">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I71">
+        <v>624.462666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72">
+        <v>19.1706666666666</v>
+      </c>
+      <c r="C72">
+        <v>39.8839999999999</v>
+      </c>
+      <c r="D72">
+        <v>107.361666666666</v>
+      </c>
+      <c r="E72">
+        <v>108.761333333333</v>
+      </c>
+      <c r="F72">
+        <v>24.4246666666666</v>
+      </c>
+      <c r="G72">
+        <v>148.596333333333</v>
+      </c>
+      <c r="H72">
+        <v>84.1066666666666</v>
+      </c>
+      <c r="I72">
+        <v>624.462666666666</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +3277,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>16.516</v>
@@ -2535,7 +3301,7 @@
         <v>3.161</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <f>15.8606666666666/B2</f>
@@ -2566,7 +3332,7 @@
         <v>5.01761046082461</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2">
         <v>0.960321304593521</v>
@@ -2592,7 +3358,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>15.8606666666666</v>
@@ -2616,7 +3382,7 @@
         <v>2.553</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <f>15.8606666666666/B3</f>
@@ -2647,7 +3413,7 @@
         <v>6.2125603864734</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -2717,7 +3483,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>31.918</v>
@@ -2741,7 +3507,7 @@
         <v>15.856</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <f>32.2866666666666/B8</f>
@@ -2772,7 +3538,7 @@
         <v>2.0362428523377</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R8">
         <v>1.01155043131357</v>
@@ -2798,7 +3564,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>32.2866666666666</v>
@@ -2822,7 +3588,7 @@
         <v>63.1083333333333</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9">
         <f>32.2866666666666/B9</f>
@@ -2853,7 +3619,7 @@
         <v>0.511607024957084</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -2923,7 +3689,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>409.138</v>
@@ -2947,7 +3713,7 @@
         <v>408.998</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <f>210.569333333333/B12</f>
@@ -2978,7 +3744,7 @@
         <v>0.514841963367383</v>
       </c>
       <c r="Q12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R12">
         <v>0.51466579328572</v>
@@ -3004,7 +3770,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>210.569333333333</v>
@@ -3028,7 +3794,7 @@
         <v>197.253</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J13">
         <f>210.569333333333/B13</f>
@@ -3059,7 +3825,7 @@
         <v>1.06750890142778</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -3138,7 +3904,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>84.898</v>
@@ -3162,7 +3928,7 @@
         <v>258.841</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J15">
         <f>68.5766666666666/B15</f>
@@ -3193,7 +3959,7 @@
         <v>0.264937419754469</v>
       </c>
       <c r="Q15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R15">
         <v>0.80775361806717</v>
@@ -3219,7 +3985,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1">
         <v>68.5766666666666</v>
@@ -3243,7 +4009,7 @@
         <v>422.364666666666</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J16">
         <f>68.5766666666666/B16</f>
@@ -3274,7 +4040,7 @@
         <v>0.162363644686188</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -3309,7 +4075,7 @@
   <sheetPr/>
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3343,88 +4109,88 @@
     </row>
     <row r="2" spans="2:29">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
       <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
       <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
       <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>39</v>
-      </c>
       <c r="AB2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -4648,7 +5414,7 @@
     </row>
     <row r="10" ht="13.05" customHeight="1" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -4678,7 +5444,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1</v>
@@ -4708,7 +5474,7 @@
         <v>9</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>1</v>
@@ -5363,7 +6129,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -5393,7 +6159,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>1</v>
@@ -5423,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>1</v>
@@ -6681,7 +7447,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -6711,7 +7477,7 @@
         <v>9</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>1</v>
@@ -7241,7 +8007,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
@@ -7707,7 +8473,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -8035,7 +8801,7 @@
   <sheetPr/>
   <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -8043,7 +8809,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -8067,7 +8833,7 @@
         <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -8139,7 +8905,7 @@
         <v>64</v>
       </c>
       <c r="AK1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL1">
         <v>1</v>
@@ -9263,7 +10029,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9287,7 +10053,7 @@
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9359,7 +10125,7 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -10483,10 +11249,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -10950,8 +11716,8 @@
   <sheetPr/>
   <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10973,7 +11739,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -10997,7 +11763,7 @@
         <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -11745,7 +12511,7 @@
         <v>1.50033333333</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>1</v>
@@ -11772,7 +12538,7 @@
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -12363,7 +13129,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>4.1673333333</v>
@@ -13320,7 +14086,7 @@
         <v>9</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>2</v>
@@ -13944,7 +14710,7 @@
   <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -13967,7 +14733,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -13979,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -13991,7 +14757,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -14003,7 +14769,7 @@
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
@@ -14015,7 +14781,7 @@
         <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="T1" t="s">
         <v>11</v>
@@ -14027,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X1" t="s">
         <v>11</v>
@@ -14039,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB1" t="s">
         <v>11</v>
@@ -14051,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF1" t="s">
         <v>11</v>
@@ -14770,30 +15536,30 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15062,67 +15828,67 @@
     </row>
     <row r="2" spans="2:28">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" t="s">
-        <v>34</v>
-      </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:28">

--- a/aliyun.xlsx
+++ b/aliyun.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450"/>
+    <workbookView windowWidth="22770" windowHeight="12450" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HST" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="45">
   <si>
     <t>native</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>facesim</t>
-  </si>
-  <si>
-    <t>ferret</t>
   </si>
   <si>
     <t>fluidanimate</t>
@@ -59,6 +56,9 @@
     <t>intrument only</t>
   </si>
   <si>
+    <t>ferret</t>
+  </si>
+  <si>
     <t>exclusive</t>
   </si>
   <si>
@@ -68,13 +68,16 @@
     <t>HST-all</t>
   </si>
   <si>
+    <t>Overhead over qemu4.1</t>
+  </si>
+  <si>
+    <t>geomean</t>
+  </si>
+  <si>
     <t>Pico-ST</t>
   </si>
   <si>
-    <t>SpeedUp Over Pico 1 thread</t>
-  </si>
-  <si>
-    <t>geomean</t>
+    <t>SpeedUp Over Pico same thread</t>
   </si>
   <si>
     <t>exclusive time</t>
@@ -164,8 +167,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -177,6 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -185,17 +203,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,6 +242,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -239,28 +266,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -269,7 +274,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +282,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,24 +310,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +333,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +411,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,121 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +524,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -568,21 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,148 +629,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,24 +1106,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:I72"/>
+    <sheetView topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="33.125" customWidth="1"/>
     <col min="2" max="9" width="12.6666666666667"/>
-    <col min="10" max="10" width="13.8833333333333" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="11" width="13.775"/>
-    <col min="12" max="15" width="12.6666666666667"/>
+    <col min="12" max="12" width="13.75"/>
+    <col min="13" max="15" width="12.6666666666667"/>
     <col min="16" max="16" width="13.775"/>
     <col min="17" max="43" width="12.6666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,11 +1152,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1169,22 +1170,19 @@
         <v>58.634</v>
       </c>
       <c r="F2" s="1">
-        <v>23.2506666667</v>
+        <v>18.7993333333</v>
       </c>
       <c r="G2" s="1">
-        <v>18.7993333333</v>
+        <v>27.202</v>
       </c>
       <c r="H2" s="1">
-        <v>27.202</v>
+        <v>56.022</v>
       </c>
       <c r="I2" s="1">
-        <v>56.022</v>
-      </c>
-      <c r="J2" s="1">
         <v>220.014666667</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1201,22 +1199,19 @@
         <v>34.364</v>
       </c>
       <c r="F3" s="1">
-        <v>12.0553333333</v>
+        <v>10.7593333333</v>
       </c>
       <c r="G3" s="1">
-        <v>10.7593333333</v>
+        <v>14.9413333333</v>
       </c>
       <c r="H3" s="1">
-        <v>14.9413333333</v>
+        <v>28.073</v>
       </c>
       <c r="I3" s="1">
-        <v>28.073</v>
-      </c>
-      <c r="J3" s="1">
         <v>114.185666667</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1233,22 +1228,19 @@
         <v>22.7946666667</v>
       </c>
       <c r="F4" s="1">
-        <v>8.355</v>
+        <v>6.588</v>
       </c>
       <c r="G4" s="1">
-        <v>6.588</v>
+        <v>9.66166666667</v>
       </c>
       <c r="H4" s="1">
-        <v>9.66166666667</v>
+        <v>14.0933333333</v>
       </c>
       <c r="I4" s="1">
-        <v>14.0933333333</v>
-      </c>
-      <c r="J4" s="1">
         <v>58.1863333333</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1265,22 +1257,19 @@
         <v>16.6013333333</v>
       </c>
       <c r="F5" s="1">
-        <v>8.35866666667</v>
+        <v>4.653</v>
       </c>
       <c r="G5" s="1">
-        <v>4.653</v>
+        <v>6.307</v>
       </c>
       <c r="H5" s="1">
-        <v>6.307</v>
+        <v>7.108</v>
       </c>
       <c r="I5" s="1">
-        <v>7.108</v>
-      </c>
-      <c r="J5" s="1">
         <v>35.102</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -1297,22 +1286,19 @@
         <v>12.9986666667</v>
       </c>
       <c r="F6" s="1">
-        <v>8.381</v>
+        <v>3.54366666667</v>
       </c>
       <c r="G6" s="1">
-        <v>3.54366666667</v>
+        <v>7.48266666667</v>
       </c>
       <c r="H6" s="1">
-        <v>7.48266666667</v>
+        <v>3.62733333333</v>
       </c>
       <c r="I6" s="1">
-        <v>3.62733333333</v>
-      </c>
-      <c r="J6" s="1">
         <v>34.226</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -1329,22 +1315,19 @@
         <v>12.772</v>
       </c>
       <c r="F7" s="1">
-        <v>8.41933333333</v>
+        <v>3.12233333333</v>
       </c>
       <c r="G7" s="1">
-        <v>3.12233333333</v>
+        <v>6.66433333333</v>
       </c>
       <c r="H7" s="1">
-        <v>6.66433333333</v>
+        <v>1.88866666667</v>
       </c>
       <c r="I7" s="1">
-        <v>1.88866666667</v>
-      </c>
-      <c r="J7" s="1">
         <v>31.7203333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>64</v>
       </c>
@@ -1361,18 +1344,15 @@
         <v>11.4766666667</v>
       </c>
       <c r="F8" s="1">
-        <v>8.58266666667</v>
+        <v>3.257</v>
       </c>
       <c r="G8" s="1">
-        <v>3.257</v>
+        <v>7.18966666667</v>
       </c>
       <c r="H8" s="1">
-        <v>7.18966666667</v>
+        <v>1.59866666667</v>
       </c>
       <c r="I8" s="1">
-        <v>1.59866666667</v>
-      </c>
-      <c r="J8" s="1">
         <v>26.822</v>
       </c>
     </row>
@@ -1390,7 +1370,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1405,19 +1385,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1671,19 +1651,19 @@
         <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1927,19 +1907,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2166,7 +2146,7 @@
         <v>31.87350566667</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2183,19 +2163,49 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>7</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>8</v>
       </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>7</v>
+      </c>
+      <c r="R37" t="s">
+        <v>8</v>
+      </c>
+      <c r="S37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2223,8 +2233,46 @@
       <c r="I38">
         <v>234.131333333</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <f>(B38-B2)/B2</f>
+        <v>0.00670826832848962</v>
+      </c>
+      <c r="L38">
+        <v>0.0001</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="L38:R38" si="0">(D38-D2)/D2</f>
+        <v>0.265553059837864</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>0.12315380154859</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>0.0426788184014374</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>1.66518393255275</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>0.0553145787958302</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>0.0641623891709277</v>
+      </c>
+      <c r="S38">
+        <f>GEOMEAN(K38:R38)</f>
+        <v>0.0391629624955699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2252,8 +2300,47 @@
       <c r="I39">
         <v>122.8235</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K44" si="1">(B39-B3)/B3</f>
+        <v>0.0323757828814331</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:R39" si="2">(C39-C3)/C3</f>
+        <v>0.0312858329049241</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0.426215860961005</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0.208648585729252</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1.57869136874211</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>1.86390103516613</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>1.02205559315713</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>0.0756472645396951</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:S45" si="3">GEOMEAN(K39:R39)</f>
+        <v>0.259388137370541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2281,8 +2368,47 @@
       <c r="I40">
         <v>64.1523333333</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.0435525826822742</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:R40" si="4">(C40-C4)/C4</f>
+        <v>0.170547993757975</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0.639465362704558</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>0.317062470751467</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>15.3658166363084</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>2.62939451440275</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>6.61374172187231</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>0.1025326680378</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0.671340596752864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2310,8 +2436,47 @@
       <c r="I41">
         <v>41.9348333333</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0.0741791405143338</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41:R41" si="5">(C41-C5)/C5</f>
+        <v>0.541247425714033</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>0.924569270455626</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>0.467894145051538</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>45.8582993051795</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="5"/>
+        <v>4.02325458485809</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>25.4911836427968</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>0.194656524793459</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>1.4131146266303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2339,8 +2504,47 @@
       <c r="I42">
         <v>40.9285</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0.0762367491147063</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:R42" si="6">(C42-C6)/C6</f>
+        <v>1.68063290021215</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>1.48904629113496</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>1.0744435326647</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>83.9024550841079</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>3.44364754097717</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="6"/>
+        <v>86.7796360963865</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0.195830655057559</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="3"/>
+        <v>2.37329984727162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43">
         <v>32</v>
       </c>
@@ -2368,8 +2572,47 @@
       <c r="I43">
         <v>39.1365</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>32</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0.199664053754087</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:R43" si="7">(C43-C7)/C7</f>
+        <v>3.01191016334617</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>2.16040583314022</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>2.18775446288757</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>146.136222910267</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>4.10151052869259</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>199.416872573067</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="7"/>
+        <v>0.233798509895055</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="3"/>
+        <v>4.09729888806588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44">
         <v>64</v>
       </c>
@@ -2397,10 +2640,90 @@
       <c r="I44">
         <v>35.9595</v>
       </c>
+      <c r="J44">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0.179737836039057</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:R44" si="8">(C44-C8)/C8</f>
+        <v>6.37069795425993</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="8"/>
+        <v>2.17680541738737</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>6.26099331975817</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>200.478866032238</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>3.74171264313842</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>225.679107588977</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0.340671836552084</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="3"/>
+        <v>5.54985962828604</v>
+      </c>
+    </row>
+    <row r="45" spans="10:19">
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <f>GEOMEAN(K38:K44)</f>
+        <v>0.0568521860005877</v>
+      </c>
+      <c r="L45">
+        <f t="shared" ref="L45:R45" si="9">GEOMEAN(L38:L44)</f>
+        <v>0.191116800901531</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>0.897369917895034</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="9"/>
+        <v>0.662648194484407</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>14.2049798632125</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="9"/>
+        <v>2.90244814483395</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="9"/>
+        <v>12.0655205392454</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>0.147389393714841</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="3"/>
+        <v>0.910835069196887</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -2415,16 +2738,16 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
         <v>6</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>7</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>8</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2630,9 +2953,9 @@
         <v>90.0696666666666</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2647,336 +2970,431 @@
         <v>4</v>
       </c>
       <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
         <v>6</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>7</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
       <c r="J55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <f>MIN(K56:K63)</f>
+        <v>1.24605050590724</v>
+      </c>
+      <c r="L55">
+        <f>MAX(L56:L63)</f>
+        <v>3.21229262275986</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56">
+        <f>B47/B38</f>
         <v>1.27320626065396</v>
       </c>
       <c r="C56">
+        <f t="shared" ref="C56:I56" si="10">C47/C38</f>
         <v>1.26644016130568</v>
       </c>
       <c r="D56">
+        <f t="shared" si="10"/>
         <v>2.1902200522235</v>
       </c>
       <c r="E56">
+        <f t="shared" si="10"/>
         <v>1.65152734543061</v>
       </c>
       <c r="F56">
+        <f t="shared" si="10"/>
         <v>1.24605050590724</v>
       </c>
       <c r="G56">
+        <f t="shared" si="10"/>
         <v>2.04965171613234</v>
       </c>
       <c r="H56">
+        <f t="shared" si="10"/>
         <v>1.42262315878578</v>
       </c>
       <c r="I56">
+        <f t="shared" si="10"/>
         <v>2.66714692893542</v>
       </c>
       <c r="J56">
         <f>GEOMEAN(B56:I56)</f>
         <v>1.6558698034785</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <f>MIN(B56:I56)</f>
+        <v>1.24605050590724</v>
+      </c>
+      <c r="L56">
+        <f>MAX(B56:I56)</f>
+        <v>2.66714692893542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57"/>
+      <c r="B57">
+        <f t="shared" ref="B57:B62" si="11">B48/B39</f>
+        <v>1.31476133854255</v>
+      </c>
       <c r="C57">
-        <f t="shared" ref="C57:I57" si="0">C47/C48*C56</f>
-        <v>2.2270049554039</v>
+        <f t="shared" ref="C57:C62" si="12">C48/C39</f>
+        <v>1.30439283420467</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>2.21340658314398</v>
+        <f t="shared" ref="D57:D62" si="13">D48/D39</f>
+        <v>2.17580617082936</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>2.45477340526281</v>
+        <f t="shared" ref="E57:E62" si="14">E48/E39</f>
+        <v>1.76175342289851</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0.665809370381947</v>
+        <f t="shared" ref="F57:F62" si="15">F48/F39</f>
+        <v>1.64751606896137</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
-        <v>2.96739767171971</v>
+        <f t="shared" ref="G57:G62" si="16">G48/G39</f>
+        <v>2.39863988502121</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
-        <v>1.3246498860619</v>
+        <f t="shared" ref="H57:H62" si="17">H48/H39</f>
+        <v>1.59124580508493</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
-        <v>5.17747081640476</v>
+        <f t="shared" ref="I57:I62" si="18">I48/I39</f>
+        <v>2.61911333471743</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J57:J63" si="1">GEOMEAN(B57:I57)</f>
-        <v>2.07200678388535</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <f t="shared" ref="J57:J63" si="19">GEOMEAN(B57:I57)</f>
+        <v>1.79602908901975</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:K63" si="20">MIN(B57:I57)</f>
+        <v>1.30439283420467</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ref="L57:L63" si="21">MAX(B57:I57)</f>
+        <v>2.61911333471743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58">
-        <f>B48/B49*B57</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.42931415141473</v>
       </c>
       <c r="C58">
-        <f>C48/C49*C57</f>
-        <v>3.26430060060205</v>
+        <f t="shared" si="12"/>
+        <v>1.40569594380185</v>
       </c>
       <c r="D58">
-        <f>D48/D49*D57</f>
-        <v>1.92742356699563</v>
+        <f t="shared" si="13"/>
+        <v>2.3375304565544</v>
       </c>
       <c r="E58">
-        <f>E48/E49*E57</f>
-        <v>3.1707568057269</v>
+        <f t="shared" si="14"/>
+        <v>1.88693846734617</v>
       </c>
       <c r="F58">
-        <f>F48/F49*F57</f>
-        <v>0.148648137190967</v>
+        <f t="shared" si="15"/>
+        <v>1.8989500825465</v>
       </c>
       <c r="G58">
-        <f>G48/G49*G57</f>
-        <v>4.21767174369767</v>
+        <f t="shared" si="16"/>
+        <v>2.05934523470028</v>
       </c>
       <c r="H58">
-        <f>H48/H49*H57</f>
-        <v>0.503784847035415</v>
+        <f t="shared" si="17"/>
+        <v>2.21341745648615</v>
       </c>
       <c r="I58">
-        <f>I48/I49*I57</f>
-        <v>9.88517688876846</v>
-      </c>
-      <c r="J58" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <f t="shared" si="18"/>
+        <v>2.62637368347352</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="19"/>
+        <v>1.9409957402304</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="20"/>
+        <v>1.40569594380185</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="21"/>
+        <v>2.62637368347352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>8</v>
       </c>
       <c r="B59">
-        <f>B49/B50*B58</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.56700567511202</v>
       </c>
       <c r="C59">
-        <f>C49/C50*C58</f>
-        <v>2.92093176646262</v>
+        <f t="shared" si="12"/>
+        <v>1.98056769809227</v>
       </c>
       <c r="D59">
-        <f>D49/D50*D58</f>
-        <v>1.68436025729772</v>
+        <f t="shared" si="13"/>
+        <v>2.36850037465891</v>
       </c>
       <c r="E59">
-        <f>E49/E50*E58</f>
-        <v>3.50726650987341</v>
+        <f t="shared" si="14"/>
+        <v>2.10161817609805</v>
       </c>
       <c r="F59">
-        <f>F49/F50*F58</f>
-        <v>0.071193558621065</v>
+        <f t="shared" si="15"/>
+        <v>1.9606677929017</v>
       </c>
       <c r="G59">
-        <f>G49/G50*G58</f>
-        <v>4.27026180595931</v>
+        <f t="shared" si="16"/>
+        <v>2.2512599295047</v>
       </c>
       <c r="H59">
-        <f>H49/H50*H58</f>
-        <v>0.291381899184865</v>
+        <f t="shared" si="17"/>
+        <v>2.18076537711618</v>
       </c>
       <c r="I59">
-        <f>I49/I50*I58</f>
-        <v>15.3076512227017</v>
-      </c>
-      <c r="J59" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <f t="shared" si="18"/>
+        <v>2.5945971725992</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="19"/>
+        <v>2.10522980208858</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="20"/>
+        <v>1.56700567511202</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="21"/>
+        <v>2.5945971725992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>16</v>
       </c>
       <c r="B60">
-        <f>B50/B51*B59</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.83600098497907</v>
       </c>
       <c r="C60">
-        <f>C50/C51*C59</f>
-        <v>2.92804332548593</v>
+        <f t="shared" si="12"/>
+        <v>1.70652245597273</v>
       </c>
       <c r="D60">
-        <f>D50/D51*D59</f>
-        <v>1.3652712604009</v>
+        <f t="shared" si="13"/>
+        <v>2.31555997723432</v>
       </c>
       <c r="E60">
-        <f>E50/E51*E59</f>
-        <v>2.92547665217039</v>
+        <f t="shared" si="14"/>
+        <v>2.27700105074479</v>
       </c>
       <c r="F60">
-        <f>F50/F51*F59</f>
-        <v>0.0403838970461696</v>
+        <f t="shared" si="15"/>
+        <v>2.50485709031041</v>
       </c>
       <c r="G60">
-        <f>G50/G51*G59</f>
-        <v>4.28876210470373</v>
+        <f t="shared" si="16"/>
+        <v>2.13579813736417</v>
       </c>
       <c r="H60">
-        <f>H50/H51*H59</f>
-        <v>0.190460065064004</v>
+        <f t="shared" si="17"/>
+        <v>1.97303652150608</v>
       </c>
       <c r="I60">
-        <f>I50/I51*I59</f>
-        <v>15.4714606661727</v>
-      </c>
-      <c r="J60" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+        <f t="shared" si="18"/>
+        <v>2.63024542800249</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="19"/>
+        <v>2.15122007607929</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="20"/>
+        <v>1.70652245597273</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="21"/>
+        <v>2.63024542800249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>32</v>
       </c>
       <c r="B61">
-        <f>B51/B52*B60</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.86558387006441</v>
       </c>
       <c r="C61">
-        <f>C51/C52*C60</f>
-        <v>2.06582094803888</v>
+        <f t="shared" si="12"/>
+        <v>2.07390652830989</v>
       </c>
       <c r="D61">
-        <f>D51/D52*D60</f>
-        <v>1.06002329933403</v>
+        <f t="shared" si="13"/>
+        <v>2.38041703404783</v>
       </c>
       <c r="E61">
-        <f>E51/E52*E60</f>
-        <v>1.93031576291905</v>
+        <f t="shared" si="14"/>
+        <v>2.28553650668894</v>
       </c>
       <c r="F61">
-        <f>F51/F52*F60</f>
-        <v>0.0206229278434045</v>
+        <f t="shared" si="15"/>
+        <v>3.21229262275986</v>
       </c>
       <c r="G61">
-        <f>G51/G52*G60</f>
-        <v>4.22441867690087</v>
+        <f t="shared" si="16"/>
+        <v>2.12063395575043</v>
       </c>
       <c r="H61">
-        <f>H51/H52*H60</f>
-        <v>0.161898326933207</v>
+        <f t="shared" si="17"/>
+        <v>1.95248784302226</v>
       </c>
       <c r="I61">
-        <f>I51/I52*I60</f>
-        <v>16.4227361500103</v>
-      </c>
-      <c r="J61" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <f t="shared" si="18"/>
+        <v>2.59134908163308</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="19"/>
+        <v>2.27813800883843</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="20"/>
+        <v>1.86558387006441</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="21"/>
+        <v>3.21229262275986</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>64</v>
       </c>
       <c r="B62">
-        <f>B52/B53*B61</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.03314500941619</v>
       </c>
       <c r="C62">
-        <f>C52/C53*C61</f>
-        <v>0.962462990692112</v>
+        <f t="shared" si="12"/>
+        <v>2.57046064930502</v>
       </c>
       <c r="D62">
-        <f>D52/D53*D61</f>
-        <v>0.919982453593018</v>
+        <f t="shared" si="13"/>
+        <v>2.72873143955134</v>
       </c>
       <c r="E62">
-        <f>E52/E53*E61</f>
-        <v>1.03888780398631</v>
+        <f t="shared" si="14"/>
+        <v>2.07481719707515</v>
       </c>
       <c r="F62">
-        <f>F52/F53*F61</f>
-        <v>0.0153579758119008</v>
+        <f t="shared" si="15"/>
+        <v>3.01983389632335</v>
       </c>
       <c r="G62">
-        <f>G52/G53*G61</f>
-        <v>3.66874596524804</v>
+        <f t="shared" si="16"/>
+        <v>2.43515458474532</v>
       </c>
       <c r="H62">
-        <f>H52/H53*H61</f>
-        <v>0.156009883028241</v>
+        <f t="shared" si="17"/>
+        <v>2.11640495864162</v>
       </c>
       <c r="I62">
-        <f>I52/I53*I61</f>
-        <v>18.4916159376796</v>
-      </c>
-      <c r="J62" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <f t="shared" si="18"/>
+        <v>2.50475303234657</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="19"/>
+        <v>2.41406607324388</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="20"/>
+        <v>2.03314500941619</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="21"/>
+        <v>3.01983389632335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" t="e">
+        <v>15</v>
+      </c>
+      <c r="B63">
         <f>GEOMEAN(B56:B62)</f>
-        <v>#NUM!</v>
+        <v>1.59367587899063</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:I63" si="2">GEOMEAN(C56:C62)</f>
-        <v>2.05837509433041</v>
+        <f t="shared" ref="C63:I63" si="22">GEOMEAN(C56:C62)</f>
+        <v>1.70472836266417</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
-        <v>1.54437787688612</v>
+        <f t="shared" si="22"/>
+        <v>2.3508763969176</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
-        <v>2.21850473624252</v>
+        <f t="shared" si="22"/>
+        <v>1.99229379704203</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
-        <v>0.101670952619147</v>
+        <f t="shared" si="22"/>
+        <v>2.10922750174728</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
-        <v>3.56240102797356</v>
+        <f t="shared" si="22"/>
+        <v>2.2024572209658</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>0.388290461086318</v>
+        <f t="shared" si="22"/>
+        <v>1.89909176467417</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
-        <v>9.97374985368446</v>
-      </c>
-      <c r="J63" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <f t="shared" si="22"/>
+        <v>2.6043665812983</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="19"/>
+        <v>2.03347888425173</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="20"/>
+        <v>1.59367587899063</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="21"/>
+        <v>2.6043665812983</v>
+      </c>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64">
+        <f>GEOMEAN(J56:J62)</f>
+        <v>2.03347888425173</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65">
+        <f>GEOMEAN(B56:I62)</f>
+        <v>2.03347888425173</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3277,7 +3695,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>16.516</v>
@@ -3301,7 +3719,7 @@
         <v>3.161</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <f>15.8606666666666/B2</f>
@@ -3332,7 +3750,7 @@
         <v>5.01761046082461</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2">
         <v>0.960321304593521</v>
@@ -3358,7 +3776,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>15.8606666666666</v>
@@ -3382,7 +3800,7 @@
         <v>2.553</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <f>15.8606666666666/B3</f>
@@ -3413,7 +3831,7 @@
         <v>6.2125603864734</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -3483,7 +3901,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>31.918</v>
@@ -3507,7 +3925,7 @@
         <v>15.856</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <f>32.2866666666666/B8</f>
@@ -3538,7 +3956,7 @@
         <v>2.0362428523377</v>
       </c>
       <c r="Q8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R8">
         <v>1.01155043131357</v>
@@ -3564,7 +3982,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>32.2866666666666</v>
@@ -3588,7 +4006,7 @@
         <v>63.1083333333333</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9">
         <f>32.2866666666666/B9</f>
@@ -3619,7 +4037,7 @@
         <v>0.511607024957084</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -3689,7 +4107,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>409.138</v>
@@ -3713,7 +4131,7 @@
         <v>408.998</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <f>210.569333333333/B12</f>
@@ -3744,7 +4162,7 @@
         <v>0.514841963367383</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R12">
         <v>0.51466579328572</v>
@@ -3770,7 +4188,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>210.569333333333</v>
@@ -3794,7 +4212,7 @@
         <v>197.253</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13">
         <f>210.569333333333/B13</f>
@@ -3825,7 +4243,7 @@
         <v>1.06750890142778</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -3904,7 +4322,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>84.898</v>
@@ -3928,7 +4346,7 @@
         <v>258.841</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <f>68.5766666666666/B15</f>
@@ -3959,7 +4377,7 @@
         <v>0.264937419754469</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R15">
         <v>0.80775361806717</v>
@@ -3985,7 +4403,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>68.5766666666666</v>
@@ -4009,7 +4427,7 @@
         <v>422.364666666666</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16">
         <f>68.5766666666666/B16</f>
@@ -4040,7 +4458,7 @@
         <v>0.162363644686188</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -4109,88 +4527,88 @@
     </row>
     <row r="2" spans="2:29">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
         <v>41</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>42</v>
-      </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -4373,7 +4791,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4462,7 +4880,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4586,19 +5004,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4879,19 +5297,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>0</v>
@@ -4909,19 +5327,19 @@
         <v>4</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -5414,7 +5832,7 @@
     </row>
     <row r="10" ht="13.05" customHeight="1" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -5429,22 +5847,22 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1</v>
@@ -5459,22 +5877,22 @@
         <v>4</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="X10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>1</v>
@@ -5489,19 +5907,19 @@
         <v>4</v>
       </c>
       <c r="AC10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -6129,7 +6547,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -6144,22 +6562,22 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>1</v>
@@ -6174,22 +6592,22 @@
         <v>4</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>1</v>
@@ -6204,19 +6622,19 @@
         <v>4</v>
       </c>
       <c r="AC19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -6921,19 +7339,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>12</v>
@@ -6951,19 +7369,19 @@
         <v>4</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -7447,7 +7865,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
@@ -7462,22 +7880,22 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>1</v>
@@ -7492,19 +7910,19 @@
         <v>4</v>
       </c>
       <c r="R37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -7992,22 +8410,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>1</v>
@@ -8022,19 +8440,19 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -8473,7 +8891,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -8488,19 +8906,19 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8809,7 +9227,7 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -8833,7 +9251,7 @@
         <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -8905,7 +9323,7 @@
         <v>64</v>
       </c>
       <c r="AK1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL1">
         <v>1</v>
@@ -9419,7 +9837,7 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.97664866666666</v>
@@ -9443,7 +9861,7 @@
         <v>8.75201266666666</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>0.259836333333</v>
@@ -9467,7 +9885,7 @@
         <v>0.357907</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6">
         <v>23.2506666667</v>
@@ -9491,7 +9909,7 @@
         <v>8.58266666667</v>
       </c>
       <c r="AB6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC6">
         <v>25.4871516666997</v>
@@ -9515,7 +9933,7 @@
         <v>17.6925863333367</v>
       </c>
       <c r="AK6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL6">
         <v>27.5636666666666</v>
@@ -9541,7 +9959,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.153151666666666</v>
@@ -9565,7 +9983,7 @@
         <v>661.758004666666</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>0.108022</v>
@@ -9589,7 +10007,7 @@
         <v>56.654779</v>
       </c>
       <c r="S7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>18.7993333333</v>
@@ -9613,7 +10031,7 @@
         <v>3.257</v>
       </c>
       <c r="AB7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC7">
         <v>19.0605069999667</v>
@@ -9637,7 +10055,7 @@
         <v>721.669783666666</v>
       </c>
       <c r="AK7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL7">
         <v>19.1246666666666</v>
@@ -9663,7 +10081,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>21.007893</v>
@@ -9687,7 +10105,7 @@
         <v>23.1884503333333</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <v>14.5271236667</v>
@@ -9711,7 +10129,7 @@
         <v>14.705779</v>
       </c>
       <c r="S8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8">
         <v>27.202</v>
@@ -9735,7 +10153,7 @@
         <v>7.18966666667</v>
       </c>
       <c r="AB8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC8">
         <v>62.7370166667</v>
@@ -9759,7 +10177,7 @@
         <v>45.0838960000033</v>
       </c>
       <c r="AK8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL8">
         <v>81.6863333333333</v>
@@ -9785,7 +10203,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1.57551699999999</v>
@@ -9809,7 +10227,7 @@
         <v>289.733837666666</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K9">
         <v>1.10256766667</v>
@@ -9833,7 +10251,7 @@
         <v>6.484187</v>
       </c>
       <c r="S9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9">
         <v>56.022</v>
@@ -9857,7 +10275,7 @@
         <v>1.59866666667</v>
       </c>
       <c r="AB9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC9">
         <v>58.70008466667</v>
@@ -9881,7 +10299,7 @@
         <v>297.816691333336</v>
       </c>
       <c r="AK9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL9">
         <v>60.8613333333333</v>
@@ -9907,7 +10325,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.016527</v>
@@ -9931,7 +10349,7 @@
         <v>4.12340766666666</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10">
         <v>0.0141376666667</v>
@@ -9955,7 +10373,7 @@
         <v>0.0905513333333</v>
       </c>
       <c r="S10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T10">
         <v>220.014666667</v>
@@ -9979,7 +10397,7 @@
         <v>26.822</v>
       </c>
       <c r="AB10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC10">
         <v>220.045331333667</v>
@@ -10003,7 +10421,7 @@
         <v>31.035959</v>
       </c>
       <c r="AK10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL10">
         <v>219.577333333333</v>
@@ -10029,7 +10447,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10053,7 +10471,7 @@
         <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10125,7 +10543,7 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -10639,7 +11057,7 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>3.705042</v>
@@ -10663,7 +11081,7 @@
         <v>11.3288136666666</v>
       </c>
       <c r="J18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>1.301071</v>
@@ -10687,7 +11105,7 @@
         <v>1.79713433333333</v>
       </c>
       <c r="S18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <v>23.2506666667</v>
@@ -10711,7 +11129,7 @@
         <v>8.58266666667</v>
       </c>
       <c r="AB18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AC18">
         <v>28.2567796667</v>
@@ -10735,7 +11153,7 @@
         <v>21.7086146666699</v>
       </c>
       <c r="AK18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL18">
         <v>30.4156666666666</v>
@@ -10761,7 +11179,7 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>0.687464</v>
@@ -10785,7 +11203,7 @@
         <v>1528.64407133333</v>
       </c>
       <c r="J19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>0.354851333333333</v>
@@ -10809,7 +11227,7 @@
         <v>431.912064333333</v>
       </c>
       <c r="S19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>18.7993333333</v>
@@ -10833,7 +11251,7 @@
         <v>3.257</v>
       </c>
       <c r="AB19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC19">
         <v>19.8416486666333</v>
@@ -10857,7 +11275,7 @@
         <v>1963.81313566666</v>
       </c>
       <c r="AK19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL19">
         <v>19.9646666666666</v>
@@ -10883,7 +11301,7 @@
     </row>
     <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>100.372190333333</v>
@@ -10907,7 +11325,7 @@
         <v>107.345687</v>
       </c>
       <c r="J20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>61.43537</v>
@@ -10931,7 +11349,7 @@
         <v>63.1276949999999</v>
       </c>
       <c r="S20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>27.202</v>
@@ -10955,7 +11373,7 @@
         <v>7.18966666667</v>
       </c>
       <c r="AB20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC20">
         <v>189.009560333333</v>
@@ -10979,7 +11397,7 @@
         <v>177.66304866667</v>
       </c>
       <c r="AK20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL20">
         <v>210.569333333333</v>
@@ -11005,7 +11423,7 @@
     </row>
     <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>6.86661166666666</v>
@@ -11029,7 +11447,7 @@
         <v>350.407888666666</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>3.35102866666666</v>
@@ -11053,7 +11471,7 @@
         <v>73.127408</v>
       </c>
       <c r="S21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T21">
         <v>56.022</v>
@@ -11077,7 +11495,7 @@
         <v>1.59866666667</v>
       </c>
       <c r="AB21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC21">
         <v>66.2396403333333</v>
@@ -11101,7 +11519,7 @@
         <v>425.133963333336</v>
       </c>
       <c r="AK21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL21">
         <v>68.5766666666666</v>
@@ -11127,7 +11545,7 @@
     </row>
     <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>0.0749686666666666</v>
@@ -11151,7 +11569,7 @@
         <v>5.00906966666666</v>
       </c>
       <c r="J22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>0.0492976666666666</v>
@@ -11175,7 +11593,7 @@
         <v>0.776694</v>
       </c>
       <c r="S22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T22">
         <v>220.014666667</v>
@@ -11199,7 +11617,7 @@
         <v>26.822</v>
       </c>
       <c r="AB22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC22">
         <v>220.138933000333</v>
@@ -11223,7 +11641,7 @@
         <v>32.6077636666667</v>
       </c>
       <c r="AK22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL22">
         <v>219.842666666666</v>
@@ -11249,10 +11667,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -11457,7 +11875,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>1.72839333333334</v>
@@ -11481,7 +11899,7 @@
         <v>2.57680099999994</v>
       </c>
       <c r="J29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>1.041234666667</v>
@@ -11507,7 +11925,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0.534312333333334</v>
@@ -11531,7 +11949,7 @@
         <v>866.886066666664</v>
       </c>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>0.246829333333333</v>
@@ -11557,7 +11975,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>79.364297333333</v>
@@ -11581,7 +11999,7 @@
         <v>84.1572366666667</v>
       </c>
       <c r="J31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>46.9082463333</v>
@@ -11607,7 +12025,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
         <v>5.29109466666667</v>
@@ -11631,7 +12049,7 @@
         <v>60.674051</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32">
         <v>2.24846099999666</v>
@@ -11657,7 +12075,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>0.0584416666666666</v>
@@ -11681,7 +12099,7 @@
         <v>0.885662</v>
       </c>
       <c r="J33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>0.0351599999999666</v>
@@ -11739,7 +12157,7 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -11763,7 +12181,7 @@
         <v>64</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K1">
         <v>1</v>
@@ -12137,7 +12555,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>24.367</v>
@@ -12161,7 +12579,7 @@
         <v>6.90633333333333</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>24.4246666666666</v>
@@ -12185,7 +12603,7 @@
         <v>1981.66533333333</v>
       </c>
       <c r="S6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <f t="shared" si="1"/>
@@ -12218,7 +12636,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>104.439</v>
@@ -12242,7 +12660,7 @@
         <v>21.0506666666666</v>
       </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>148.596333333333</v>
@@ -12266,7 +12684,7 @@
         <v>83.0176666666666</v>
       </c>
       <c r="S7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <f t="shared" si="1"/>
@@ -12299,7 +12717,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>80.5233333333333</v>
@@ -12323,7 +12741,7 @@
         <v>2.21233333333333</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8">
         <v>84.1066666666666</v>
@@ -12347,7 +12765,7 @@
         <v>766.952</v>
       </c>
       <c r="S8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
@@ -12380,7 +12798,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>623.685</v>
@@ -12404,7 +12822,7 @@
         <v>74.493</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>624.462666666666</v>
@@ -12428,7 +12846,7 @@
         <v>90.0696666666666</v>
       </c>
       <c r="S9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
@@ -12511,7 +12929,7 @@
         <v>1.50033333333</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
         <v>1</v>
@@ -12526,19 +12944,19 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" t="s">
         <v>6</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>8</v>
       </c>
-      <c r="R12" t="s">
-        <v>9</v>
-      </c>
       <c r="U12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -12795,7 +13213,7 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <v>18.7993333333</v>
@@ -12872,7 +13290,7 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>27.202</v>
@@ -12923,7 +13341,7 @@
         <v>107.652</v>
       </c>
       <c r="U17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17">
         <v>0.135086333333333</v>
@@ -12949,7 +13367,7 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>56.022</v>
@@ -13000,7 +13418,7 @@
         <v>101.416333333333</v>
       </c>
       <c r="U18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V18">
         <v>18.978398</v>
@@ -13026,7 +13444,7 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>220.014666667</v>
@@ -13077,7 +13495,7 @@
         <v>90.0696666666666</v>
       </c>
       <c r="U19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V19">
         <v>1.436415</v>
@@ -13103,7 +13521,7 @@
     </row>
     <row r="20" spans="21:28">
       <c r="U20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V20">
         <v>0.0153423333333333</v>
@@ -13129,7 +13547,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>4.1673333333</v>
@@ -13168,16 +13586,16 @@
         <v>4</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -13341,7 +13759,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>5.5676666667</v>
@@ -13394,7 +13812,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>77.237</v>
@@ -13447,7 +13865,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>24.5013333333333</v>
@@ -13500,7 +13918,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>403.670333333</v>
@@ -13592,16 +14010,16 @@
         <v>4</v>
       </c>
       <c r="O30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -13850,7 +14268,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>0.0576666666665986</v>
@@ -13911,7 +14329,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>44.157333333333</v>
@@ -13972,7 +14390,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>3.5833333333333</v>
@@ -14033,7 +14451,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0.77766666666605</v>
@@ -14074,19 +14492,19 @@
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>2</v>
@@ -14098,16 +14516,16 @@
         <v>4</v>
       </c>
       <c r="O43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="R43" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="T43" t="s">
         <v>11</v>
@@ -14125,16 +14543,16 @@
         <v>4</v>
       </c>
       <c r="Y43" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" t="s">
         <v>6</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>7</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>8</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -14733,7 +15151,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -14745,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -14757,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -14769,55 +15187,55 @@
         <v>0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T1" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" t="s">
         <v>11</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB1" t="s">
         <v>11</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF1" t="s">
         <v>11</v>
@@ -15536,30 +15954,30 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -15676,7 +16094,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>11165492704</v>
@@ -15704,7 +16122,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>35436736747</v>
@@ -15732,7 +16150,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>33250635854</v>
@@ -15760,7 +16178,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2019458657</v>
@@ -15795,13 +16213,16 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="12.625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:27">
       <c r="C1">
@@ -15828,67 +16249,67 @@
     </row>
     <row r="2" spans="2:28">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>37</v>
-      </c>
       <c r="AB2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -16165,7 +16586,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -16233,7 +16654,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -16301,7 +16722,7 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16369,7 +16790,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -16433,6 +16854,543 @@
       </c>
       <c r="AB10">
         <v>150123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>788988</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>789042</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>789150</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>789351</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>789831</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>790791</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>792715</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>555297</v>
+      </c>
+      <c r="C15">
+        <v>198</v>
+      </c>
+      <c r="D15">
+        <v>567967</v>
+      </c>
+      <c r="E15">
+        <v>4499</v>
+      </c>
+      <c r="F15">
+        <v>568924</v>
+      </c>
+      <c r="G15">
+        <v>13578</v>
+      </c>
+      <c r="H15">
+        <v>672898</v>
+      </c>
+      <c r="I15">
+        <v>29594</v>
+      </c>
+      <c r="J15">
+        <v>783505</v>
+      </c>
+      <c r="K15">
+        <v>44440</v>
+      </c>
+      <c r="L15">
+        <v>1044025</v>
+      </c>
+      <c r="M15">
+        <v>74649</v>
+      </c>
+      <c r="N15">
+        <v>1731185</v>
+      </c>
+      <c r="O15">
+        <v>201999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>64663788</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>63802801</v>
+      </c>
+      <c r="E16">
+        <v>808</v>
+      </c>
+      <c r="F16">
+        <v>65051874</v>
+      </c>
+      <c r="G16">
+        <v>1115</v>
+      </c>
+      <c r="H16">
+        <v>65192955</v>
+      </c>
+      <c r="I16">
+        <v>6249</v>
+      </c>
+      <c r="J16">
+        <v>65733343</v>
+      </c>
+      <c r="K16">
+        <v>33529</v>
+      </c>
+      <c r="L16">
+        <v>65213020</v>
+      </c>
+      <c r="M16">
+        <v>83388</v>
+      </c>
+      <c r="N16">
+        <v>68907390</v>
+      </c>
+      <c r="O16">
+        <v>362687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1635345</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>15096509</v>
+      </c>
+      <c r="E17">
+        <v>1769</v>
+      </c>
+      <c r="F17">
+        <v>28062116</v>
+      </c>
+      <c r="G17">
+        <v>9978</v>
+      </c>
+      <c r="H17">
+        <v>58329214</v>
+      </c>
+      <c r="I17">
+        <v>37171</v>
+      </c>
+      <c r="J17">
+        <v>85833669</v>
+      </c>
+      <c r="K17">
+        <v>42093</v>
+      </c>
+      <c r="L17">
+        <v>140996635</v>
+      </c>
+      <c r="M17">
+        <v>154677</v>
+      </c>
+      <c r="N17">
+        <v>185804558</v>
+      </c>
+      <c r="O17">
+        <v>339134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>234371166</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>234371684</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>234372965</v>
+      </c>
+      <c r="G18">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>234375442</v>
+      </c>
+      <c r="I18">
+        <v>268</v>
+      </c>
+      <c r="J18">
+        <v>234379730</v>
+      </c>
+      <c r="K18">
+        <v>468</v>
+      </c>
+      <c r="L18">
+        <v>234390548</v>
+      </c>
+      <c r="M18">
+        <v>1065</v>
+      </c>
+      <c r="N18">
+        <v>234413894</v>
+      </c>
+      <c r="O18">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>17303079</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17138154</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>17550811</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>18211150</v>
+      </c>
+      <c r="I19">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>19614301</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>22090639</v>
+      </c>
+      <c r="M19">
+        <v>72</v>
+      </c>
+      <c r="N19">
+        <v>22093320</v>
+      </c>
+      <c r="O19">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>163089</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>303419</v>
+      </c>
+      <c r="E20">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>311843</v>
+      </c>
+      <c r="G20">
+        <v>212</v>
+      </c>
+      <c r="H20">
+        <v>357122</v>
+      </c>
+      <c r="I20">
+        <v>1854</v>
+      </c>
+      <c r="J20">
+        <v>377608</v>
+      </c>
+      <c r="K20">
+        <v>1307</v>
+      </c>
+      <c r="L20">
+        <v>407660</v>
+      </c>
+      <c r="M20">
+        <v>1437</v>
+      </c>
+      <c r="N20">
+        <v>475928</v>
+      </c>
+      <c r="O20">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>5.04594967926682e-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.000356565945791171</v>
+      </c>
+      <c r="C23">
+        <v>0.00792123486047605</v>
+      </c>
+      <c r="D23">
+        <v>0.0238661051388235</v>
+      </c>
+      <c r="E23">
+        <v>0.0439799196906515</v>
+      </c>
+      <c r="F23">
+        <v>0.0567194848788457</v>
+      </c>
+      <c r="G23">
+        <v>0.0715011613706568</v>
+      </c>
+      <c r="H23">
+        <v>0.116682503603023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.26640208162648e-5</v>
+      </c>
+      <c r="D24">
+        <v>1.71401672456046e-5</v>
+      </c>
+      <c r="E24">
+        <v>9.58539155036e-5</v>
+      </c>
+      <c r="F24">
+        <v>0.000510075989897547</v>
+      </c>
+      <c r="G24">
+        <v>0.00127870170711309</v>
+      </c>
+      <c r="H24">
+        <v>0.00526339772845844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.000117179408828889</v>
+      </c>
+      <c r="D25">
+        <v>0.000355568339892829</v>
+      </c>
+      <c r="E25">
+        <v>0.000637262144489038</v>
+      </c>
+      <c r="F25">
+        <v>0.000490401965690177</v>
+      </c>
+      <c r="G25">
+        <v>0.00109702618080212</v>
+      </c>
+      <c r="H25">
+        <v>0.00182521894861158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>6.82676325353365e-8</v>
+      </c>
+      <c r="D26">
+        <v>3.02935963625327e-7</v>
+      </c>
+      <c r="E26">
+        <v>1.14346451024506e-6</v>
+      </c>
+      <c r="F26">
+        <v>1.99675970272685e-6</v>
+      </c>
+      <c r="G26">
+        <v>4.54369857951781e-6</v>
+      </c>
+      <c r="H26">
+        <v>1.0797141572163e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3.4186454403731e-7</v>
+      </c>
+      <c r="E27">
+        <v>1.1531396973832e-6</v>
+      </c>
+      <c r="F27">
+        <v>1.27458021573137e-6</v>
+      </c>
+      <c r="G27">
+        <v>3.25929910855001e-6</v>
+      </c>
+      <c r="H27">
+        <v>6.87990759197803e-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.000322985706234613</v>
+      </c>
+      <c r="D28">
+        <v>0.000679829273063689</v>
+      </c>
+      <c r="E28">
+        <v>0.00519150318378593</v>
+      </c>
+      <c r="F28">
+        <v>0.00346126141395309</v>
+      </c>
+      <c r="G28">
+        <v>0.00352499632046313</v>
+      </c>
+      <c r="H28">
+        <v>0.0033744600023533</v>
       </c>
     </row>
   </sheetData>
